--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA972C6-9DF1-4AAE-B7EA-62BEA680DC33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -127,29 +136,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -160,11 +170,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -178,45 +194,43 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -406,28 +420,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="K167" sqref="K167"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="13.14"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="4" width="13.0"/>
-    <col customWidth="1" min="5" max="5" width="9.14"/>
-    <col customWidth="1" min="6" max="26" width="8.57"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="26" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,11 +460,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -461,7 +477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -478,7 +494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -495,7 +511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -512,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -529,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -548,7 +564,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -570,7 +586,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -592,7 +608,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -609,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -626,7 +642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -643,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -660,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -677,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
+    <row r="15" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -694,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
+    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -711,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -728,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -745,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -762,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -779,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
+    <row r="21" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -796,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
+    <row r="22" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -813,7 +829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" ht="13.5" customHeight="1">
+    <row r="23" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -830,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
+    <row r="24" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -847,7 +863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="25" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -864,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" ht="13.5" customHeight="1">
+    <row r="26" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -882,7 +898,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
+    <row r="27" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -899,7 +915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
+    <row r="28" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -916,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" ht="13.5" customHeight="1">
+    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -933,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -950,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1">
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
@@ -967,7 +983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" ht="13.5" customHeight="1">
+    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -984,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
+    <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
+    <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
+    <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
+    <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
+    <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
+    <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
+    <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
+    <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" ht="13.5" customHeight="1">
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" ht="13.5" customHeight="1">
+    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" ht="13.5" customHeight="1">
+    <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" ht="13.5" customHeight="1">
+    <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" ht="13.5" customHeight="1">
+    <row r="56" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" ht="13.5" customHeight="1">
+    <row r="57" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" ht="13.5" customHeight="1">
+    <row r="58" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" ht="13.5" customHeight="1">
+    <row r="59" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" ht="13.5" customHeight="1">
+    <row r="60" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" ht="13.5" customHeight="1">
+    <row r="61" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" ht="13.5" customHeight="1">
+    <row r="62" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" ht="13.5" customHeight="1">
+    <row r="63" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" ht="13.5" customHeight="1">
+    <row r="64" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" ht="13.5" customHeight="1">
+    <row r="65" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" ht="13.5" customHeight="1">
+    <row r="66" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" ht="13.5" customHeight="1">
+    <row r="67" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" ht="13.5" customHeight="1">
+    <row r="68" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" ht="13.5" customHeight="1">
+    <row r="69" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1633,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="5"/>
     </row>
-    <row r="70" ht="13.5" customHeight="1">
+    <row r="70" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1655,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="5"/>
     </row>
-    <row r="71" ht="13.5" customHeight="1">
+    <row r="71" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>5</v>
       </c>
@@ -1661,7 +1677,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="5"/>
     </row>
-    <row r="72" ht="13.5" customHeight="1">
+    <row r="72" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -1682,7 +1698,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="5"/>
     </row>
-    <row r="73" ht="13.5" customHeight="1">
+    <row r="73" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -1704,7 +1720,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="5"/>
     </row>
-    <row r="74" ht="13.5" customHeight="1">
+    <row r="74" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1742,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="5"/>
     </row>
-    <row r="75" ht="13.5" customHeight="1">
+    <row r="75" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +1764,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="5"/>
     </row>
-    <row r="76" ht="13.5" customHeight="1">
+    <row r="76" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1786,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="5"/>
     </row>
-    <row r="77" ht="13.5" customHeight="1">
+    <row r="77" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1808,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="5"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1830,7 @@
       <c r="M78" s="3"/>
       <c r="N78" s="5"/>
     </row>
-    <row r="79" ht="13.5" customHeight="1">
+    <row r="79" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1852,7 @@
       <c r="M79" s="3"/>
       <c r="N79" s="5"/>
     </row>
-    <row r="80" ht="13.5" customHeight="1">
+    <row r="80" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1874,7 @@
       <c r="M80" s="3"/>
       <c r="N80" s="5"/>
     </row>
-    <row r="81" ht="13.5" customHeight="1">
+    <row r="81" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
@@ -1880,7 +1896,7 @@
       <c r="M81" s="3"/>
       <c r="N81" s="5"/>
     </row>
-    <row r="82" ht="13.5" customHeight="1">
+    <row r="82" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1918,7 @@
       <c r="M82" s="3"/>
       <c r="N82" s="5"/>
     </row>
-    <row r="83" ht="13.5" customHeight="1">
+    <row r="83" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>5</v>
       </c>
@@ -1924,7 +1940,7 @@
       <c r="M83" s="3"/>
       <c r="N83" s="5"/>
     </row>
-    <row r="84" ht="13.5" customHeight="1">
+    <row r="84" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1962,7 @@
       <c r="M84" s="3"/>
       <c r="N84" s="5"/>
     </row>
-    <row r="85" ht="13.5" customHeight="1">
+    <row r="85" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +1984,7 @@
       <c r="M85" s="3"/>
       <c r="N85" s="5"/>
     </row>
-    <row r="86" ht="13.5" customHeight="1">
+    <row r="86" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2006,7 @@
       <c r="M86" s="3"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" ht="13.5" customHeight="1">
+    <row r="87" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2028,7 @@
       <c r="M87" s="3"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" ht="13.5" customHeight="1">
+    <row r="88" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
@@ -2034,7 +2050,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="5"/>
     </row>
-    <row r="89" ht="13.5" customHeight="1">
+    <row r="89" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2072,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="5"/>
     </row>
-    <row r="90" ht="13.5" customHeight="1">
+    <row r="90" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2094,7 @@
       <c r="M90" s="3"/>
       <c r="N90" s="5"/>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
+    <row r="91" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2116,7 @@
       <c r="M91" s="3"/>
       <c r="N91" s="5"/>
     </row>
-    <row r="92" ht="13.5" customHeight="1">
+    <row r="92" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2122,7 +2138,7 @@
       <c r="M92" s="3"/>
       <c r="N92" s="5"/>
     </row>
-    <row r="93" ht="13.5" customHeight="1">
+    <row r="93" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>5</v>
       </c>
@@ -2144,7 +2160,7 @@
       <c r="M93" s="3"/>
       <c r="N93" s="5"/>
     </row>
-    <row r="94" ht="13.5" customHeight="1">
+    <row r="94" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2182,7 @@
       <c r="M94" s="3"/>
       <c r="N94" s="5"/>
     </row>
-    <row r="95" ht="13.5" customHeight="1">
+    <row r="95" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2204,7 @@
       <c r="M95" s="3"/>
       <c r="N95" s="5"/>
     </row>
-    <row r="96" ht="13.5" customHeight="1">
+    <row r="96" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2226,7 @@
       <c r="M96" s="3"/>
       <c r="N96" s="5"/>
     </row>
-    <row r="97" ht="13.5" customHeight="1">
+    <row r="97" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>5</v>
       </c>
@@ -2232,7 +2248,7 @@
       <c r="M97" s="3"/>
       <c r="N97" s="5"/>
     </row>
-    <row r="98" ht="13.5" customHeight="1">
+    <row r="98" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -2254,7 +2270,7 @@
       <c r="M98" s="3"/>
       <c r="N98" s="5"/>
     </row>
-    <row r="99" ht="13.5" customHeight="1">
+    <row r="99" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2292,7 @@
       <c r="M99" s="3"/>
       <c r="N99" s="5"/>
     </row>
-    <row r="100" ht="13.5" customHeight="1">
+    <row r="100" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>5</v>
       </c>
@@ -2298,7 +2314,7 @@
       <c r="M100" s="3"/>
       <c r="N100" s="5"/>
     </row>
-    <row r="101" ht="13.5" customHeight="1">
+    <row r="101" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2336,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="5"/>
     </row>
-    <row r="102" ht="13.5" customHeight="1">
+    <row r="102" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -2342,7 +2358,7 @@
       <c r="M102" s="3"/>
       <c r="N102" s="5"/>
     </row>
-    <row r="103" ht="13.5" customHeight="1">
+    <row r="103" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2380,7 @@
       <c r="M103" s="3"/>
       <c r="N103" s="5"/>
     </row>
-    <row r="104" ht="13.5" customHeight="1">
+    <row r="104" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2402,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="5"/>
     </row>
-    <row r="105" ht="13.5" customHeight="1">
+    <row r="105" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2424,7 @@
       <c r="M105" s="3"/>
       <c r="N105" s="5"/>
     </row>
-    <row r="106" ht="13.5" customHeight="1">
+    <row r="106" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>5</v>
       </c>
@@ -2430,7 +2446,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="5"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
+    <row r="107" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>5</v>
       </c>
@@ -2452,7 +2468,7 @@
       <c r="M107" s="3"/>
       <c r="N107" s="5"/>
     </row>
-    <row r="108" ht="13.5" customHeight="1">
+    <row r="108" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2490,7 @@
       <c r="M108" s="3"/>
       <c r="N108" s="5"/>
     </row>
-    <row r="109" ht="13.5" customHeight="1">
+    <row r="109" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2512,7 @@
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
     </row>
-    <row r="110" ht="13.5" customHeight="1">
+    <row r="110" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -2518,7 +2534,7 @@
       <c r="M110" s="3"/>
       <c r="N110" s="5"/>
     </row>
-    <row r="111" ht="13.5" customHeight="1">
+    <row r="111" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2556,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="5"/>
     </row>
-    <row r="112" ht="13.5" customHeight="1">
+    <row r="112" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -2562,7 +2578,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="5"/>
     </row>
-    <row r="113" ht="13.5" customHeight="1">
+    <row r="113" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
@@ -2584,7 +2600,7 @@
       <c r="M113" s="3"/>
       <c r="N113" s="5"/>
     </row>
-    <row r="114" ht="13.5" customHeight="1">
+    <row r="114" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>5</v>
       </c>
@@ -2606,7 +2622,7 @@
       <c r="M114" s="3"/>
       <c r="N114" s="5"/>
     </row>
-    <row r="115" ht="13.5" customHeight="1">
+    <row r="115" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2644,7 @@
       <c r="M115" s="3"/>
       <c r="N115" s="5"/>
     </row>
-    <row r="116" ht="13.5" customHeight="1">
+    <row r="116" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2666,7 @@
       <c r="M116" s="3"/>
       <c r="N116" s="5"/>
     </row>
-    <row r="117" ht="13.5" customHeight="1">
+    <row r="117" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2688,7 @@
       <c r="M117" s="3"/>
       <c r="N117" s="5"/>
     </row>
-    <row r="118" ht="13.5" customHeight="1">
+    <row r="118" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>5</v>
       </c>
@@ -2694,7 +2710,7 @@
       <c r="M118" s="3"/>
       <c r="N118" s="5"/>
     </row>
-    <row r="119" ht="13.5" customHeight="1">
+    <row r="119" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +2732,7 @@
       <c r="M119" s="3"/>
       <c r="N119" s="5"/>
     </row>
-    <row r="120" ht="13.5" customHeight="1">
+    <row r="120" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>5</v>
       </c>
@@ -2738,7 +2754,7 @@
       <c r="M120" s="3"/>
       <c r="N120" s="5"/>
     </row>
-    <row r="121" ht="13.5" customHeight="1">
+    <row r="121" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -2760,7 +2776,7 @@
       <c r="M121" s="3"/>
       <c r="N121" s="5"/>
     </row>
-    <row r="122" ht="13.5" customHeight="1">
+    <row r="122" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -2782,7 +2798,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="5"/>
     </row>
-    <row r="123" ht="13.5" customHeight="1">
+    <row r="123" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>5</v>
       </c>
@@ -2804,7 +2820,7 @@
       <c r="M123" s="3"/>
       <c r="N123" s="5"/>
     </row>
-    <row r="124" ht="13.5" customHeight="1">
+    <row r="124" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>5</v>
       </c>
@@ -2826,7 +2842,7 @@
       <c r="M124" s="3"/>
       <c r="N124" s="5"/>
     </row>
-    <row r="125" ht="13.5" customHeight="1">
+    <row r="125" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>5</v>
       </c>
@@ -2848,7 +2864,7 @@
       <c r="M125" s="3"/>
       <c r="N125" s="5"/>
     </row>
-    <row r="126" ht="13.5" customHeight="1">
+    <row r="126" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2886,7 @@
       <c r="M126" s="3"/>
       <c r="N126" s="5"/>
     </row>
-    <row r="127" ht="13.5" customHeight="1">
+    <row r="127" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +2903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" ht="13.5" customHeight="1">
+    <row r="128" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" ht="13.5" customHeight="1">
+    <row r="129" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" ht="13.5" customHeight="1">
+    <row r="130" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +2954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" ht="13.5" customHeight="1">
+    <row r="131" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" ht="13.5" customHeight="1">
+    <row r="132" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>5</v>
       </c>
@@ -2972,7 +2988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" ht="13.5" customHeight="1">
+    <row r="133" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>5</v>
       </c>
@@ -2989,7 +3005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" ht="13.5" customHeight="1">
+    <row r="134" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>5</v>
       </c>
@@ -3006,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" ht="13.5" customHeight="1">
+    <row r="135" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>5</v>
       </c>
@@ -3023,7 +3039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" ht="13.5" customHeight="1">
+    <row r="136" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +3056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" ht="13.5" customHeight="1">
+    <row r="137" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>5</v>
       </c>
@@ -3057,7 +3073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" ht="13.5" customHeight="1">
+    <row r="138" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>5</v>
       </c>
@@ -3074,7 +3090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" ht="13.5" customHeight="1">
+    <row r="139" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>5</v>
       </c>
@@ -3091,7 +3107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" ht="13.5" customHeight="1">
+    <row r="140" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>5</v>
       </c>
@@ -3108,7 +3124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" ht="13.5" customHeight="1">
+    <row r="141" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>5</v>
       </c>
@@ -3125,7 +3141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" ht="13.5" customHeight="1">
+    <row r="142" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" ht="13.5" customHeight="1">
+    <row r="143" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>5</v>
       </c>
@@ -3159,7 +3175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" ht="13.5" customHeight="1">
+    <row r="144" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>5</v>
       </c>
@@ -3176,7 +3192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" ht="13.5" customHeight="1">
+    <row r="145" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>5</v>
       </c>
@@ -3193,7 +3209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" ht="13.5" customHeight="1">
+    <row r="146" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>5</v>
       </c>
@@ -3210,7 +3226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" ht="13.5" customHeight="1">
+    <row r="147" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
@@ -3227,7 +3243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" ht="13.5" customHeight="1">
+    <row r="148" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>5</v>
       </c>
@@ -3244,7 +3260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" ht="13.5" customHeight="1">
+    <row r="149" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>5</v>
       </c>
@@ -3261,7 +3277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" ht="13.5" customHeight="1">
+    <row r="150" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>5</v>
       </c>
@@ -3278,7 +3294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" ht="13.5" customHeight="1">
+    <row r="151" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" ht="13.5" customHeight="1">
+    <row r="152" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>5</v>
       </c>
@@ -3312,7 +3328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" ht="13.5" customHeight="1">
+    <row r="153" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>5</v>
       </c>
@@ -3329,7 +3345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" ht="13.5" customHeight="1">
+    <row r="154" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>5</v>
       </c>
@@ -3346,7 +3362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" ht="13.5" customHeight="1">
+    <row r="155" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>5</v>
       </c>
@@ -3363,7 +3379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" ht="13.5" customHeight="1">
+    <row r="156" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>5</v>
       </c>
@@ -3380,7 +3396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" ht="13.5" customHeight="1">
+    <row r="157" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>5</v>
       </c>
@@ -3397,7 +3413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" ht="13.5" customHeight="1">
+    <row r="158" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" ht="13.5" customHeight="1">
+    <row r="159" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>5</v>
       </c>
@@ -3431,7 +3447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" ht="13.5" customHeight="1">
+    <row r="160" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>5</v>
       </c>
@@ -3448,7 +3464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" ht="13.5" customHeight="1">
+    <row r="161" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>5</v>
       </c>
@@ -3465,7 +3481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" ht="13.5" customHeight="1">
+    <row r="162" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>5</v>
       </c>
@@ -3482,7 +3498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" ht="13.5" customHeight="1">
+    <row r="163" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>5</v>
       </c>
@@ -3499,7 +3515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" ht="13.5" customHeight="1">
+    <row r="164" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +3532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" ht="13.5" customHeight="1">
+    <row r="165" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" ht="13.5" customHeight="1">
+    <row r="166" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>5</v>
       </c>
@@ -3550,12 +3566,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" ht="13.5" customHeight="1">
+    <row r="167" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>7</v>
@@ -3567,7 +3583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" ht="13.5" customHeight="1">
+    <row r="168" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>5</v>
       </c>
@@ -3584,7 +3600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" ht="13.5" customHeight="1">
+    <row r="169" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>5</v>
       </c>
@@ -3601,7 +3617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" ht="13.5" customHeight="1">
+    <row r="170" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>5</v>
       </c>
@@ -3618,7 +3634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" ht="13.5" customHeight="1">
+    <row r="171" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>5</v>
       </c>
@@ -3635,7 +3651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" ht="13.5" customHeight="1">
+    <row r="172" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>5</v>
       </c>
@@ -3652,7 +3668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" ht="13.5" customHeight="1">
+    <row r="173" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>5</v>
       </c>
@@ -3669,7 +3685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" ht="13.5" customHeight="1">
+    <row r="174" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>5</v>
       </c>
@@ -3686,7 +3702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" ht="13.5" customHeight="1">
+    <row r="175" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" ht="13.5" customHeight="1">
+    <row r="176" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" ht="13.5" customHeight="1">
+    <row r="177" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>5</v>
       </c>
@@ -3737,3342 +3753,3340 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" ht="13.5" customHeight="1">
+    <row r="178" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" ht="13.5" customHeight="1">
+    <row r="179" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="5"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" ht="13.5" customHeight="1">
+    <row r="180" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="5"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" ht="13.5" customHeight="1">
+    <row r="181" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="5"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" ht="13.5" customHeight="1">
+    <row r="182" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="5"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" ht="13.5" customHeight="1">
+    <row r="183" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="5"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" ht="13.5" customHeight="1">
+    <row r="184" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="5"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" ht="13.5" customHeight="1">
+    <row r="185" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="5"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" ht="13.5" customHeight="1">
+    <row r="186" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="5"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" ht="13.5" customHeight="1">
+    <row r="187" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="5"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" ht="13.5" customHeight="1">
+    <row r="188" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="5"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" ht="13.5" customHeight="1">
+    <row r="189" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" ht="13.5" customHeight="1">
+    <row r="190" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="5"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" ht="13.5" customHeight="1">
+    <row r="191" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="5"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" ht="13.5" customHeight="1">
+    <row r="192" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="5"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" ht="13.5" customHeight="1">
+    <row r="193" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="5"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" ht="13.5" customHeight="1">
+    <row r="194" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="5"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" ht="13.5" customHeight="1">
+    <row r="195" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" ht="13.5" customHeight="1">
+    <row r="196" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="5"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" ht="13.5" customHeight="1">
+    <row r="197" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="5"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" ht="13.5" customHeight="1">
+    <row r="198" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="5"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" ht="13.5" customHeight="1">
+    <row r="199" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="5"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" ht="13.5" customHeight="1">
+    <row r="200" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="5"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" ht="13.5" customHeight="1">
+    <row r="201" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="5"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" ht="13.5" customHeight="1">
+    <row r="202" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="5"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" ht="13.5" customHeight="1">
+    <row r="203" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="5"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" ht="13.5" customHeight="1">
+    <row r="204" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="5"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" ht="13.5" customHeight="1">
+    <row r="205" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" ht="13.5" customHeight="1">
+    <row r="206" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="5"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" ht="13.5" customHeight="1">
+    <row r="207" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="5"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" ht="13.5" customHeight="1">
+    <row r="208" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="5"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" ht="13.5" customHeight="1">
+    <row r="209" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" ht="13.5" customHeight="1">
+    <row r="210" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" ht="13.5" customHeight="1">
+    <row r="211" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" ht="13.5" customHeight="1">
+    <row r="212" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" ht="13.5" customHeight="1">
+    <row r="213" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" ht="13.5" customHeight="1">
+    <row r="214" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" ht="13.5" customHeight="1">
+    <row r="215" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" ht="13.5" customHeight="1">
+    <row r="216" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" ht="13.5" customHeight="1">
+    <row r="217" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" ht="13.5" customHeight="1">
+    <row r="218" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" ht="13.5" customHeight="1">
+    <row r="219" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" ht="13.5" customHeight="1">
+    <row r="220" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" ht="13.5" customHeight="1">
+    <row r="221" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" ht="13.5" customHeight="1">
+    <row r="222" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" ht="13.5" customHeight="1">
+    <row r="223" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" ht="13.5" customHeight="1">
+    <row r="224" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" ht="13.5" customHeight="1">
+    <row r="225" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" ht="13.5" customHeight="1">
+    <row r="226" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" ht="13.5" customHeight="1">
+    <row r="227" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" ht="13.5" customHeight="1">
+    <row r="228" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" ht="13.5" customHeight="1">
+    <row r="229" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" ht="13.5" customHeight="1">
+    <row r="230" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" ht="13.5" customHeight="1">
+    <row r="231" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" ht="13.5" customHeight="1">
+    <row r="233" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="5"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" ht="13.5" customHeight="1">
+    <row r="234" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" ht="13.5" customHeight="1">
+    <row r="235" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" ht="13.5" customHeight="1">
+    <row r="236" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" ht="13.5" customHeight="1">
+    <row r="237" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" ht="13.5" customHeight="1">
+    <row r="238" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" ht="13.5" customHeight="1">
+    <row r="239" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" ht="13.5" customHeight="1">
+    <row r="240" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" ht="13.5" customHeight="1">
+    <row r="241" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="5"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" ht="13.5" customHeight="1">
+    <row r="242" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="5"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" ht="13.5" customHeight="1">
+    <row r="243" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="5"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" ht="13.5" customHeight="1">
+    <row r="244" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="5"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" ht="13.5" customHeight="1">
+    <row r="245" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="5"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" ht="13.5" customHeight="1">
+    <row r="246" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="5"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" ht="13.5" customHeight="1">
+    <row r="247" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="5"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" ht="13.5" customHeight="1">
+    <row r="248" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="5"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" ht="13.5" customHeight="1">
+    <row r="249" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="5"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" ht="13.5" customHeight="1">
+    <row r="250" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="5"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" ht="13.5" customHeight="1">
+    <row r="251" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="5"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" ht="13.5" customHeight="1">
+    <row r="252" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="5"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" ht="13.5" customHeight="1">
+    <row r="253" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="5"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" ht="13.5" customHeight="1">
+    <row r="254" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="5"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" ht="13.5" customHeight="1">
+    <row r="255" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="5"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" ht="13.5" customHeight="1">
+    <row r="256" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="5"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" ht="13.5" customHeight="1">
+    <row r="257" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="5"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" ht="13.5" customHeight="1">
+    <row r="258" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="5"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" ht="13.5" customHeight="1">
+    <row r="259" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="5"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" ht="13.5" customHeight="1">
+    <row r="260" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="5"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" ht="13.5" customHeight="1">
+    <row r="261" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" ht="13.5" customHeight="1">
+    <row r="262" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="5"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" ht="13.5" customHeight="1">
+    <row r="263" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="5"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" ht="13.5" customHeight="1">
+    <row r="264" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="5"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" ht="13.5" customHeight="1">
+    <row r="265" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="5"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" ht="13.5" customHeight="1">
+    <row r="266" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="5"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" ht="13.5" customHeight="1">
+    <row r="267" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="5"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" ht="13.5" customHeight="1">
+    <row r="268" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" ht="13.5" customHeight="1">
+    <row r="269" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="5"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" ht="13.5" customHeight="1">
+    <row r="270" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="5"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" ht="13.5" customHeight="1">
+    <row r="271" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" ht="13.5" customHeight="1">
+    <row r="272" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" ht="13.5" customHeight="1">
+    <row r="273" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="5"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" ht="13.5" customHeight="1">
+    <row r="274" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="5"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" ht="13.5" customHeight="1">
+    <row r="275" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="5"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" ht="13.5" customHeight="1">
+    <row r="276" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="5"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" ht="13.5" customHeight="1">
+    <row r="277" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="5"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" ht="13.5" customHeight="1">
+    <row r="278" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="5"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" ht="13.5" customHeight="1">
+    <row r="279" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="5"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" ht="13.5" customHeight="1">
+    <row r="280" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="5"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" ht="13.5" customHeight="1">
+    <row r="281" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="5"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" ht="13.5" customHeight="1">
+    <row r="282" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="5"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" ht="13.5" customHeight="1">
+    <row r="283" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="5"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" ht="13.5" customHeight="1">
+    <row r="284" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" ht="13.5" customHeight="1">
+    <row r="285" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" ht="13.5" customHeight="1">
+    <row r="286" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="5"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" ht="13.5" customHeight="1">
+    <row r="287" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="5"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" ht="13.5" customHeight="1">
+    <row r="288" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="5"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" ht="13.5" customHeight="1">
+    <row r="289" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="5"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" ht="13.5" customHeight="1">
+    <row r="290" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="5"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" ht="13.5" customHeight="1">
+    <row r="291" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="5"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" ht="13.5" customHeight="1">
+    <row r="292" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="5"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" ht="13.5" customHeight="1">
+    <row r="293" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="5"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" ht="13.5" customHeight="1">
+    <row r="294" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="5"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" ht="13.5" customHeight="1">
+    <row r="295" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="5"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" ht="13.5" customHeight="1">
+    <row r="296" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="5"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" ht="13.5" customHeight="1">
+    <row r="297" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="5"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" ht="13.5" customHeight="1">
+    <row r="298" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="5"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" ht="13.5" customHeight="1">
+    <row r="299" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="5"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" ht="13.5" customHeight="1">
+    <row r="300" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="5"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" ht="13.5" customHeight="1">
+    <row r="301" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="5"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" ht="13.5" customHeight="1">
+    <row r="302" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="5"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" ht="13.5" customHeight="1">
+    <row r="303" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="5"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" ht="13.5" customHeight="1">
+    <row r="304" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="5"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" ht="13.5" customHeight="1">
+    <row r="305" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="5"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" ht="13.5" customHeight="1">
+    <row r="306" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="5"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" ht="13.5" customHeight="1">
+    <row r="307" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="5"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" ht="13.5" customHeight="1">
+    <row r="308" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="5"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" ht="13.5" customHeight="1">
+    <row r="309" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="5"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" ht="13.5" customHeight="1">
+    <row r="310" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="5"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" ht="13.5" customHeight="1">
+    <row r="311" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="5"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" ht="13.5" customHeight="1">
+    <row r="312" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="5"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" ht="13.5" customHeight="1">
+    <row r="313" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="5"/>
       <c r="E313" s="5"/>
     </row>
-    <row r="314" ht="13.5" customHeight="1">
+    <row r="314" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" ht="13.5" customHeight="1">
+    <row r="315" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="5"/>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" ht="13.5" customHeight="1">
+    <row r="316" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="5"/>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" ht="13.5" customHeight="1">
+    <row r="317" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" ht="13.5" customHeight="1">
+    <row r="318" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" ht="13.5" customHeight="1">
+    <row r="319" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="5"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" ht="13.5" customHeight="1">
+    <row r="320" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="5"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" ht="13.5" customHeight="1">
+    <row r="321" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="5"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" ht="13.5" customHeight="1">
+    <row r="322" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" ht="13.5" customHeight="1">
+    <row r="323" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" ht="13.5" customHeight="1">
+    <row r="324" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" ht="13.5" customHeight="1">
+    <row r="325" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" ht="13.5" customHeight="1">
+    <row r="326" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" ht="13.5" customHeight="1">
+    <row r="327" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="5"/>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" ht="13.5" customHeight="1">
+    <row r="328" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="5"/>
       <c r="E328" s="5"/>
     </row>
-    <row r="329" ht="13.5" customHeight="1">
+    <row r="329" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="5"/>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" ht="13.5" customHeight="1">
+    <row r="330" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="5"/>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" ht="13.5" customHeight="1">
+    <row r="331" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="5"/>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" ht="13.5" customHeight="1">
+    <row r="332" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="5"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" ht="13.5" customHeight="1">
+    <row r="333" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="5"/>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" ht="13.5" customHeight="1">
+    <row r="334" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="5"/>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" ht="13.5" customHeight="1">
+    <row r="335" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="5"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" ht="13.5" customHeight="1">
+    <row r="336" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="5"/>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" ht="13.5" customHeight="1">
+    <row r="337" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="5"/>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" ht="13.5" customHeight="1">
+    <row r="338" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="5"/>
       <c r="E338" s="5"/>
     </row>
-    <row r="339" ht="13.5" customHeight="1">
+    <row r="339" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="5"/>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" ht="13.5" customHeight="1">
+    <row r="340" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="5"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" ht="13.5" customHeight="1">
+    <row r="341" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="5"/>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" ht="13.5" customHeight="1">
+    <row r="342" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="5"/>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" ht="13.5" customHeight="1">
+    <row r="343" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="5"/>
       <c r="E343" s="5"/>
     </row>
-    <row r="344" ht="13.5" customHeight="1">
+    <row r="344" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="5"/>
       <c r="E344" s="5"/>
     </row>
-    <row r="345" ht="13.5" customHeight="1">
+    <row r="345" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="5"/>
       <c r="E345" s="5"/>
     </row>
-    <row r="346" ht="13.5" customHeight="1">
+    <row r="346" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="5"/>
       <c r="E346" s="5"/>
     </row>
-    <row r="347" ht="13.5" customHeight="1">
+    <row r="347" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="5"/>
       <c r="E347" s="5"/>
     </row>
-    <row r="348" ht="13.5" customHeight="1">
+    <row r="348" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="5"/>
       <c r="E348" s="5"/>
     </row>
-    <row r="349" ht="13.5" customHeight="1">
+    <row r="349" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="5"/>
       <c r="E349" s="5"/>
     </row>
-    <row r="350" ht="13.5" customHeight="1">
+    <row r="350" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="5"/>
       <c r="E350" s="5"/>
     </row>
-    <row r="351" ht="13.5" customHeight="1">
+    <row r="351" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="5"/>
       <c r="E351" s="5"/>
     </row>
-    <row r="352" ht="13.5" customHeight="1">
+    <row r="352" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="5"/>
       <c r="E352" s="5"/>
     </row>
-    <row r="353" ht="13.5" customHeight="1">
+    <row r="353" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="5"/>
       <c r="E353" s="5"/>
     </row>
-    <row r="354" ht="13.5" customHeight="1">
+    <row r="354" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="5"/>
       <c r="E354" s="5"/>
     </row>
-    <row r="355" ht="13.5" customHeight="1">
+    <row r="355" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="5"/>
       <c r="E355" s="5"/>
     </row>
-    <row r="356" ht="13.5" customHeight="1">
+    <row r="356" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="5"/>
       <c r="E356" s="5"/>
     </row>
-    <row r="357" ht="13.5" customHeight="1">
+    <row r="357" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="5"/>
       <c r="E357" s="5"/>
     </row>
-    <row r="358" ht="13.5" customHeight="1">
+    <row r="358" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="5"/>
       <c r="E358" s="5"/>
     </row>
-    <row r="359" ht="13.5" customHeight="1">
+    <row r="359" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="5"/>
       <c r="E359" s="5"/>
     </row>
-    <row r="360" ht="13.5" customHeight="1">
+    <row r="360" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
       <c r="E360" s="5"/>
     </row>
-    <row r="361" ht="13.5" customHeight="1">
+    <row r="361" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="5"/>
       <c r="E361" s="5"/>
     </row>
-    <row r="362" ht="13.5" customHeight="1">
+    <row r="362" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="5"/>
       <c r="E362" s="5"/>
     </row>
-    <row r="363" ht="13.5" customHeight="1">
+    <row r="363" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
       <c r="E363" s="5"/>
     </row>
-    <row r="364" ht="13.5" customHeight="1">
+    <row r="364" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
       <c r="E364" s="5"/>
     </row>
-    <row r="365" ht="13.5" customHeight="1">
+    <row r="365" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="5"/>
       <c r="E365" s="5"/>
     </row>
-    <row r="366" ht="13.5" customHeight="1">
+    <row r="366" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="5"/>
       <c r="E366" s="5"/>
     </row>
-    <row r="367" ht="13.5" customHeight="1">
+    <row r="367" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="5"/>
       <c r="E367" s="5"/>
     </row>
-    <row r="368" ht="13.5" customHeight="1">
+    <row r="368" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="5"/>
       <c r="E368" s="5"/>
     </row>
-    <row r="369" ht="13.5" customHeight="1">
+    <row r="369" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="5"/>
       <c r="E369" s="5"/>
     </row>
-    <row r="370" ht="13.5" customHeight="1">
+    <row r="370" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="5"/>
       <c r="E370" s="5"/>
     </row>
-    <row r="371" ht="13.5" customHeight="1">
+    <row r="371" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="5"/>
       <c r="E371" s="5"/>
     </row>
-    <row r="372" ht="13.5" customHeight="1">
+    <row r="372" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="5"/>
       <c r="E372" s="5"/>
     </row>
-    <row r="373" ht="13.5" customHeight="1">
+    <row r="373" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="5"/>
       <c r="E373" s="5"/>
     </row>
-    <row r="374" ht="13.5" customHeight="1">
+    <row r="374" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="5"/>
       <c r="E374" s="5"/>
     </row>
-    <row r="375" ht="13.5" customHeight="1">
+    <row r="375" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="5"/>
       <c r="E375" s="5"/>
     </row>
-    <row r="376" ht="13.5" customHeight="1">
+    <row r="376" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="5"/>
       <c r="E376" s="5"/>
     </row>
-    <row r="377" ht="13.5" customHeight="1">
+    <row r="377" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="5"/>
       <c r="E377" s="5"/>
     </row>
-    <row r="378" ht="13.5" customHeight="1">
+    <row r="378" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="5"/>
       <c r="E378" s="5"/>
     </row>
-    <row r="379" ht="13.5" customHeight="1">
+    <row r="379" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="5"/>
       <c r="E379" s="5"/>
     </row>
-    <row r="380" ht="13.5" customHeight="1">
+    <row r="380" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="5"/>
       <c r="E380" s="5"/>
     </row>
-    <row r="381" ht="13.5" customHeight="1">
+    <row r="381" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="5"/>
       <c r="E381" s="5"/>
     </row>
-    <row r="382" ht="13.5" customHeight="1">
+    <row r="382" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="5"/>
       <c r="E382" s="5"/>
     </row>
-    <row r="383" ht="13.5" customHeight="1">
+    <row r="383" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="5"/>
       <c r="E383" s="5"/>
     </row>
-    <row r="384" ht="13.5" customHeight="1">
+    <row r="384" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="5"/>
       <c r="E384" s="5"/>
     </row>
-    <row r="385" ht="13.5" customHeight="1">
+    <row r="385" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="5"/>
       <c r="E385" s="5"/>
     </row>
-    <row r="386" ht="13.5" customHeight="1">
+    <row r="386" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="5"/>
       <c r="E386" s="5"/>
     </row>
-    <row r="387" ht="13.5" customHeight="1">
+    <row r="387" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="5"/>
       <c r="E387" s="5"/>
     </row>
-    <row r="388" ht="13.5" customHeight="1">
+    <row r="388" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="5"/>
       <c r="E388" s="5"/>
     </row>
-    <row r="389" ht="13.5" customHeight="1">
+    <row r="389" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="5"/>
       <c r="E389" s="5"/>
     </row>
-    <row r="390" ht="13.5" customHeight="1">
+    <row r="390" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="5"/>
       <c r="E390" s="5"/>
     </row>
-    <row r="391" ht="13.5" customHeight="1">
+    <row r="391" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="5"/>
       <c r="E391" s="5"/>
     </row>
-    <row r="392" ht="13.5" customHeight="1">
+    <row r="392" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="5"/>
       <c r="E392" s="5"/>
     </row>
-    <row r="393" ht="13.5" customHeight="1">
+    <row r="393" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="5"/>
       <c r="E393" s="5"/>
     </row>
-    <row r="394" ht="13.5" customHeight="1">
+    <row r="394" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="5"/>
       <c r="E394" s="5"/>
     </row>
-    <row r="395" ht="13.5" customHeight="1">
+    <row r="395" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="5"/>
       <c r="E395" s="5"/>
     </row>
-    <row r="396" ht="13.5" customHeight="1">
+    <row r="396" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="5"/>
       <c r="E396" s="5"/>
     </row>
-    <row r="397" ht="13.5" customHeight="1">
+    <row r="397" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="5"/>
       <c r="E397" s="5"/>
     </row>
-    <row r="398" ht="13.5" customHeight="1">
+    <row r="398" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="5"/>
       <c r="E398" s="5"/>
     </row>
-    <row r="399" ht="13.5" customHeight="1">
+    <row r="399" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="5"/>
       <c r="E399" s="5"/>
     </row>
-    <row r="400" ht="13.5" customHeight="1">
+    <row r="400" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="5"/>
       <c r="E400" s="5"/>
     </row>
-    <row r="401" ht="13.5" customHeight="1">
+    <row r="401" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="5"/>
       <c r="E401" s="5"/>
     </row>
-    <row r="402" ht="13.5" customHeight="1">
+    <row r="402" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="5"/>
       <c r="E402" s="5"/>
     </row>
-    <row r="403" ht="13.5" customHeight="1">
+    <row r="403" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="5"/>
       <c r="E403" s="5"/>
     </row>
-    <row r="404" ht="13.5" customHeight="1">
+    <row r="404" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="5"/>
       <c r="E404" s="5"/>
     </row>
-    <row r="405" ht="13.5" customHeight="1">
+    <row r="405" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="5"/>
       <c r="E405" s="5"/>
     </row>
-    <row r="406" ht="13.5" customHeight="1">
+    <row r="406" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="5"/>
       <c r="E406" s="5"/>
     </row>
-    <row r="407" ht="13.5" customHeight="1">
+    <row r="407" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="5"/>
       <c r="E407" s="5"/>
     </row>
-    <row r="408" ht="13.5" customHeight="1">
+    <row r="408" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="5"/>
       <c r="E408" s="5"/>
     </row>
-    <row r="409" ht="13.5" customHeight="1">
+    <row r="409" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
       <c r="E409" s="5"/>
     </row>
-    <row r="410" ht="13.5" customHeight="1">
+    <row r="410" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="5"/>
       <c r="E410" s="5"/>
     </row>
-    <row r="411" ht="13.5" customHeight="1">
+    <row r="411" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="5"/>
       <c r="E411" s="5"/>
     </row>
-    <row r="412" ht="13.5" customHeight="1">
+    <row r="412" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="5"/>
       <c r="E412" s="5"/>
     </row>
-    <row r="413" ht="13.5" customHeight="1">
+    <row r="413" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="5"/>
       <c r="E413" s="5"/>
     </row>
-    <row r="414" ht="13.5" customHeight="1">
+    <row r="414" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="5"/>
       <c r="E414" s="5"/>
     </row>
-    <row r="415" ht="13.5" customHeight="1">
+    <row r="415" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="5"/>
       <c r="E415" s="5"/>
     </row>
-    <row r="416" ht="13.5" customHeight="1">
+    <row r="416" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="5"/>
       <c r="E416" s="5"/>
     </row>
-    <row r="417" ht="13.5" customHeight="1">
+    <row r="417" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="5"/>
       <c r="E417" s="5"/>
     </row>
-    <row r="418" ht="13.5" customHeight="1">
+    <row r="418" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="5"/>
       <c r="E418" s="5"/>
     </row>
-    <row r="419" ht="13.5" customHeight="1">
+    <row r="419" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="5"/>
       <c r="E419" s="5"/>
     </row>
-    <row r="420" ht="13.5" customHeight="1">
+    <row r="420" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="5"/>
       <c r="E420" s="5"/>
     </row>
-    <row r="421" ht="13.5" customHeight="1">
+    <row r="421" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="5"/>
       <c r="E421" s="5"/>
     </row>
-    <row r="422" ht="13.5" customHeight="1">
+    <row r="422" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="5"/>
       <c r="E422" s="5"/>
     </row>
-    <row r="423" ht="13.5" customHeight="1">
+    <row r="423" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="5"/>
       <c r="E423" s="5"/>
     </row>
-    <row r="424" ht="13.5" customHeight="1">
+    <row r="424" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="5"/>
       <c r="E424" s="5"/>
     </row>
-    <row r="425" ht="13.5" customHeight="1">
+    <row r="425" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="5"/>
       <c r="E425" s="5"/>
     </row>
-    <row r="426" ht="13.5" customHeight="1">
+    <row r="426" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="5"/>
       <c r="E426" s="5"/>
     </row>
-    <row r="427" ht="13.5" customHeight="1">
+    <row r="427" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="5"/>
       <c r="E427" s="5"/>
     </row>
-    <row r="428" ht="13.5" customHeight="1">
+    <row r="428" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="5"/>
       <c r="E428" s="5"/>
     </row>
-    <row r="429" ht="13.5" customHeight="1">
+    <row r="429" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="5"/>
       <c r="E429" s="5"/>
     </row>
-    <row r="430" ht="13.5" customHeight="1">
+    <row r="430" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="5"/>
       <c r="E430" s="5"/>
     </row>
-    <row r="431" ht="13.5" customHeight="1">
+    <row r="431" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="5"/>
       <c r="E431" s="5"/>
     </row>
-    <row r="432" ht="13.5" customHeight="1">
+    <row r="432" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="5"/>
       <c r="E432" s="5"/>
     </row>
-    <row r="433" ht="13.5" customHeight="1">
+    <row r="433" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="5"/>
       <c r="E433" s="5"/>
     </row>
-    <row r="434" ht="13.5" customHeight="1">
+    <row r="434" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="5"/>
       <c r="E434" s="5"/>
     </row>
-    <row r="435" ht="13.5" customHeight="1">
+    <row r="435" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="5"/>
       <c r="E435" s="5"/>
     </row>
-    <row r="436" ht="13.5" customHeight="1">
+    <row r="436" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="5"/>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" ht="13.5" customHeight="1">
+    <row r="437" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="5"/>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" ht="13.5" customHeight="1">
+    <row r="438" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B438" s="5"/>
       <c r="E438" s="5"/>
     </row>
-    <row r="439" ht="13.5" customHeight="1">
+    <row r="439" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="5"/>
       <c r="E439" s="5"/>
     </row>
-    <row r="440" ht="13.5" customHeight="1">
+    <row r="440" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="5"/>
       <c r="E440" s="5"/>
     </row>
-    <row r="441" ht="13.5" customHeight="1">
+    <row r="441" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="5"/>
       <c r="E441" s="5"/>
     </row>
-    <row r="442" ht="13.5" customHeight="1">
+    <row r="442" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="5"/>
       <c r="E442" s="5"/>
     </row>
-    <row r="443" ht="13.5" customHeight="1">
+    <row r="443" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="5"/>
       <c r="E443" s="5"/>
     </row>
-    <row r="444" ht="13.5" customHeight="1">
+    <row r="444" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="5"/>
       <c r="E444" s="5"/>
     </row>
-    <row r="445" ht="13.5" customHeight="1">
+    <row r="445" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B445" s="5"/>
       <c r="E445" s="5"/>
     </row>
-    <row r="446" ht="13.5" customHeight="1">
+    <row r="446" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="5"/>
       <c r="E446" s="5"/>
     </row>
-    <row r="447" ht="13.5" customHeight="1">
+    <row r="447" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="5"/>
       <c r="E447" s="5"/>
     </row>
-    <row r="448" ht="13.5" customHeight="1">
+    <row r="448" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="5"/>
       <c r="E448" s="5"/>
     </row>
-    <row r="449" ht="13.5" customHeight="1">
+    <row r="449" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="5"/>
       <c r="E449" s="5"/>
     </row>
-    <row r="450" ht="13.5" customHeight="1">
+    <row r="450" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="5"/>
       <c r="E450" s="5"/>
     </row>
-    <row r="451" ht="13.5" customHeight="1">
+    <row r="451" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="5"/>
       <c r="E451" s="5"/>
     </row>
-    <row r="452" ht="13.5" customHeight="1">
+    <row r="452" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="5"/>
       <c r="E452" s="5"/>
     </row>
-    <row r="453" ht="13.5" customHeight="1">
+    <row r="453" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="5"/>
       <c r="E453" s="5"/>
     </row>
-    <row r="454" ht="13.5" customHeight="1">
+    <row r="454" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="5"/>
       <c r="E454" s="5"/>
     </row>
-    <row r="455" ht="13.5" customHeight="1">
+    <row r="455" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B455" s="5"/>
       <c r="E455" s="5"/>
     </row>
-    <row r="456" ht="13.5" customHeight="1">
+    <row r="456" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="5"/>
       <c r="E456" s="5"/>
     </row>
-    <row r="457" ht="13.5" customHeight="1">
+    <row r="457" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="5"/>
       <c r="E457" s="5"/>
     </row>
-    <row r="458" ht="13.5" customHeight="1">
+    <row r="458" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="5"/>
       <c r="E458" s="5"/>
     </row>
-    <row r="459" ht="13.5" customHeight="1">
+    <row r="459" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="5"/>
       <c r="E459" s="5"/>
     </row>
-    <row r="460" ht="13.5" customHeight="1">
+    <row r="460" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="5"/>
       <c r="E460" s="5"/>
     </row>
-    <row r="461" ht="13.5" customHeight="1">
+    <row r="461" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="5"/>
       <c r="E461" s="5"/>
     </row>
-    <row r="462" ht="13.5" customHeight="1">
+    <row r="462" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="5"/>
       <c r="E462" s="5"/>
     </row>
-    <row r="463" ht="13.5" customHeight="1">
+    <row r="463" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="5"/>
       <c r="E463" s="5"/>
     </row>
-    <row r="464" ht="13.5" customHeight="1">
+    <row r="464" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="5"/>
       <c r="E464" s="5"/>
     </row>
-    <row r="465" ht="13.5" customHeight="1">
+    <row r="465" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="5"/>
       <c r="E465" s="5"/>
     </row>
-    <row r="466" ht="13.5" customHeight="1">
+    <row r="466" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="5"/>
       <c r="E466" s="5"/>
     </row>
-    <row r="467" ht="13.5" customHeight="1">
+    <row r="467" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="5"/>
       <c r="E467" s="5"/>
     </row>
-    <row r="468" ht="13.5" customHeight="1">
+    <row r="468" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="5"/>
       <c r="E468" s="5"/>
     </row>
-    <row r="469" ht="13.5" customHeight="1">
+    <row r="469" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="5"/>
       <c r="E469" s="5"/>
     </row>
-    <row r="470" ht="13.5" customHeight="1">
+    <row r="470" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="5"/>
       <c r="E470" s="5"/>
     </row>
-    <row r="471" ht="13.5" customHeight="1">
+    <row r="471" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="5"/>
       <c r="E471" s="5"/>
     </row>
-    <row r="472" ht="13.5" customHeight="1">
+    <row r="472" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="5"/>
       <c r="E472" s="5"/>
     </row>
-    <row r="473" ht="13.5" customHeight="1">
+    <row r="473" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B473" s="5"/>
       <c r="E473" s="5"/>
     </row>
-    <row r="474" ht="13.5" customHeight="1">
+    <row r="474" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="5"/>
       <c r="E474" s="5"/>
     </row>
-    <row r="475" ht="13.5" customHeight="1">
+    <row r="475" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="5"/>
       <c r="E475" s="5"/>
     </row>
-    <row r="476" ht="13.5" customHeight="1">
+    <row r="476" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="5"/>
       <c r="E476" s="5"/>
     </row>
-    <row r="477" ht="13.5" customHeight="1">
+    <row r="477" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="5"/>
       <c r="E477" s="5"/>
     </row>
-    <row r="478" ht="13.5" customHeight="1">
+    <row r="478" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="5"/>
       <c r="E478" s="5"/>
     </row>
-    <row r="479" ht="13.5" customHeight="1">
+    <row r="479" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="5"/>
       <c r="E479" s="5"/>
     </row>
-    <row r="480" ht="13.5" customHeight="1">
+    <row r="480" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B480" s="5"/>
       <c r="E480" s="5"/>
     </row>
-    <row r="481" ht="13.5" customHeight="1">
+    <row r="481" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="5"/>
       <c r="E481" s="5"/>
     </row>
-    <row r="482" ht="13.5" customHeight="1">
+    <row r="482" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" s="5"/>
       <c r="E482" s="5"/>
     </row>
-    <row r="483" ht="13.5" customHeight="1">
+    <row r="483" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="5"/>
       <c r="E483" s="5"/>
     </row>
-    <row r="484" ht="13.5" customHeight="1">
+    <row r="484" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="5"/>
       <c r="E484" s="5"/>
     </row>
-    <row r="485" ht="13.5" customHeight="1">
+    <row r="485" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="5"/>
       <c r="E485" s="5"/>
     </row>
-    <row r="486" ht="13.5" customHeight="1">
+    <row r="486" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="5"/>
       <c r="E486" s="5"/>
     </row>
-    <row r="487" ht="13.5" customHeight="1">
+    <row r="487" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B487" s="5"/>
       <c r="E487" s="5"/>
     </row>
-    <row r="488" ht="13.5" customHeight="1">
+    <row r="488" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="5"/>
       <c r="E488" s="5"/>
     </row>
-    <row r="489" ht="13.5" customHeight="1">
+    <row r="489" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B489" s="5"/>
       <c r="E489" s="5"/>
     </row>
-    <row r="490" ht="13.5" customHeight="1">
+    <row r="490" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="5"/>
       <c r="E490" s="5"/>
     </row>
-    <row r="491" ht="13.5" customHeight="1">
+    <row r="491" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="5"/>
       <c r="E491" s="5"/>
     </row>
-    <row r="492" ht="13.5" customHeight="1">
+    <row r="492" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="5"/>
       <c r="E492" s="5"/>
     </row>
-    <row r="493" ht="13.5" customHeight="1">
+    <row r="493" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="5"/>
       <c r="E493" s="5"/>
     </row>
-    <row r="494" ht="13.5" customHeight="1">
+    <row r="494" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="5"/>
       <c r="E494" s="5"/>
     </row>
-    <row r="495" ht="13.5" customHeight="1">
+    <row r="495" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="5"/>
       <c r="E495" s="5"/>
     </row>
-    <row r="496" ht="13.5" customHeight="1">
+    <row r="496" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="5"/>
       <c r="E496" s="5"/>
     </row>
-    <row r="497" ht="13.5" customHeight="1">
+    <row r="497" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B497" s="5"/>
       <c r="E497" s="5"/>
     </row>
-    <row r="498" ht="13.5" customHeight="1">
+    <row r="498" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="5"/>
       <c r="E498" s="5"/>
     </row>
-    <row r="499" ht="13.5" customHeight="1">
+    <row r="499" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="5"/>
       <c r="E499" s="5"/>
     </row>
-    <row r="500" ht="13.5" customHeight="1">
+    <row r="500" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
       <c r="E500" s="5"/>
     </row>
-    <row r="501" ht="13.5" customHeight="1">
+    <row r="501" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="5"/>
       <c r="E501" s="5"/>
     </row>
-    <row r="502" ht="13.5" customHeight="1">
+    <row r="502" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B502" s="5"/>
       <c r="E502" s="5"/>
     </row>
-    <row r="503" ht="13.5" customHeight="1">
+    <row r="503" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="5"/>
       <c r="E503" s="5"/>
     </row>
-    <row r="504" ht="13.5" customHeight="1">
+    <row r="504" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="5"/>
       <c r="E504" s="5"/>
     </row>
-    <row r="505" ht="13.5" customHeight="1">
+    <row r="505" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="5"/>
       <c r="E505" s="5"/>
     </row>
-    <row r="506" ht="13.5" customHeight="1">
+    <row r="506" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="5"/>
       <c r="E506" s="5"/>
     </row>
-    <row r="507" ht="13.5" customHeight="1">
+    <row r="507" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="5"/>
       <c r="E507" s="5"/>
     </row>
-    <row r="508" ht="13.5" customHeight="1">
+    <row r="508" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="5"/>
       <c r="E508" s="5"/>
     </row>
-    <row r="509" ht="13.5" customHeight="1">
+    <row r="509" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="5"/>
       <c r="E509" s="5"/>
     </row>
-    <row r="510" ht="13.5" customHeight="1">
+    <row r="510" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="5"/>
       <c r="E510" s="5"/>
     </row>
-    <row r="511" ht="13.5" customHeight="1">
+    <row r="511" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="5"/>
       <c r="E511" s="5"/>
     </row>
-    <row r="512" ht="13.5" customHeight="1">
+    <row r="512" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="5"/>
       <c r="E512" s="5"/>
     </row>
-    <row r="513" ht="13.5" customHeight="1">
+    <row r="513" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="5"/>
       <c r="E513" s="5"/>
     </row>
-    <row r="514" ht="13.5" customHeight="1">
+    <row r="514" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="5"/>
       <c r="E514" s="5"/>
     </row>
-    <row r="515" ht="13.5" customHeight="1">
+    <row r="515" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="5"/>
       <c r="E515" s="5"/>
     </row>
-    <row r="516" ht="13.5" customHeight="1">
+    <row r="516" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="5"/>
       <c r="E516" s="5"/>
     </row>
-    <row r="517" ht="13.5" customHeight="1">
+    <row r="517" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="5"/>
       <c r="E517" s="5"/>
     </row>
-    <row r="518" ht="13.5" customHeight="1">
+    <row r="518" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="5"/>
       <c r="E518" s="5"/>
     </row>
-    <row r="519" ht="13.5" customHeight="1">
+    <row r="519" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="5"/>
       <c r="E519" s="5"/>
     </row>
-    <row r="520" ht="13.5" customHeight="1">
+    <row r="520" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="5"/>
       <c r="E520" s="5"/>
     </row>
-    <row r="521" ht="13.5" customHeight="1">
+    <row r="521" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="5"/>
       <c r="E521" s="5"/>
     </row>
-    <row r="522" ht="13.5" customHeight="1">
+    <row r="522" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="5"/>
       <c r="E522" s="5"/>
     </row>
-    <row r="523" ht="13.5" customHeight="1">
+    <row r="523" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="5"/>
       <c r="E523" s="5"/>
     </row>
-    <row r="524" ht="13.5" customHeight="1">
+    <row r="524" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="5"/>
       <c r="E524" s="5"/>
     </row>
-    <row r="525" ht="13.5" customHeight="1">
+    <row r="525" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="5"/>
       <c r="E525" s="5"/>
     </row>
-    <row r="526" ht="13.5" customHeight="1">
+    <row r="526" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="5"/>
       <c r="E526" s="5"/>
     </row>
-    <row r="527" ht="13.5" customHeight="1">
+    <row r="527" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="5"/>
       <c r="E527" s="5"/>
     </row>
-    <row r="528" ht="13.5" customHeight="1">
+    <row r="528" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="5"/>
       <c r="E528" s="5"/>
     </row>
-    <row r="529" ht="13.5" customHeight="1">
+    <row r="529" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="5"/>
       <c r="E529" s="5"/>
     </row>
-    <row r="530" ht="13.5" customHeight="1">
+    <row r="530" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="5"/>
       <c r="E530" s="5"/>
     </row>
-    <row r="531" ht="13.5" customHeight="1">
+    <row r="531" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="5"/>
       <c r="E531" s="5"/>
     </row>
-    <row r="532" ht="13.5" customHeight="1">
+    <row r="532" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="5"/>
       <c r="E532" s="5"/>
     </row>
-    <row r="533" ht="13.5" customHeight="1">
+    <row r="533" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="5"/>
       <c r="E533" s="5"/>
     </row>
-    <row r="534" ht="13.5" customHeight="1">
+    <row r="534" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B534" s="5"/>
       <c r="E534" s="5"/>
     </row>
-    <row r="535" ht="13.5" customHeight="1">
+    <row r="535" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="5"/>
       <c r="E535" s="5"/>
     </row>
-    <row r="536" ht="13.5" customHeight="1">
+    <row r="536" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="5"/>
       <c r="E536" s="5"/>
     </row>
-    <row r="537" ht="13.5" customHeight="1">
+    <row r="537" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="5"/>
       <c r="E537" s="5"/>
     </row>
-    <row r="538" ht="13.5" customHeight="1">
+    <row r="538" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="5"/>
       <c r="E538" s="5"/>
     </row>
-    <row r="539" ht="13.5" customHeight="1">
+    <row r="539" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="5"/>
       <c r="E539" s="5"/>
     </row>
-    <row r="540" ht="13.5" customHeight="1">
+    <row r="540" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="5"/>
       <c r="E540" s="5"/>
     </row>
-    <row r="541" ht="13.5" customHeight="1">
+    <row r="541" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="5"/>
       <c r="E541" s="5"/>
     </row>
-    <row r="542" ht="13.5" customHeight="1">
+    <row r="542" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="5"/>
       <c r="E542" s="5"/>
     </row>
-    <row r="543" ht="13.5" customHeight="1">
+    <row r="543" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="5"/>
       <c r="E543" s="5"/>
     </row>
-    <row r="544" ht="13.5" customHeight="1">
+    <row r="544" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="5"/>
       <c r="E544" s="5"/>
     </row>
-    <row r="545" ht="13.5" customHeight="1">
+    <row r="545" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="5"/>
       <c r="E545" s="5"/>
     </row>
-    <row r="546" ht="13.5" customHeight="1">
+    <row r="546" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="5"/>
       <c r="E546" s="5"/>
     </row>
-    <row r="547" ht="13.5" customHeight="1">
+    <row r="547" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="5"/>
       <c r="E547" s="5"/>
     </row>
-    <row r="548" ht="13.5" customHeight="1">
+    <row r="548" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="5"/>
       <c r="E548" s="5"/>
     </row>
-    <row r="549" ht="13.5" customHeight="1">
+    <row r="549" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="5"/>
       <c r="E549" s="5"/>
     </row>
-    <row r="550" ht="13.5" customHeight="1">
+    <row r="550" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="5"/>
       <c r="E550" s="5"/>
     </row>
-    <row r="551" ht="13.5" customHeight="1">
+    <row r="551" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="5"/>
       <c r="E551" s="5"/>
     </row>
-    <row r="552" ht="13.5" customHeight="1">
+    <row r="552" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="5"/>
       <c r="E552" s="5"/>
     </row>
-    <row r="553" ht="13.5" customHeight="1">
+    <row r="553" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="5"/>
       <c r="E553" s="5"/>
     </row>
-    <row r="554" ht="13.5" customHeight="1">
+    <row r="554" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="5"/>
       <c r="E554" s="5"/>
     </row>
-    <row r="555" ht="13.5" customHeight="1">
+    <row r="555" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="5"/>
       <c r="E555" s="5"/>
     </row>
-    <row r="556" ht="13.5" customHeight="1">
+    <row r="556" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="5"/>
       <c r="E556" s="5"/>
     </row>
-    <row r="557" ht="13.5" customHeight="1">
+    <row r="557" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="5"/>
       <c r="E557" s="5"/>
     </row>
-    <row r="558" ht="13.5" customHeight="1">
+    <row r="558" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="5"/>
       <c r="E558" s="5"/>
     </row>
-    <row r="559" ht="13.5" customHeight="1">
+    <row r="559" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="5"/>
       <c r="E559" s="5"/>
     </row>
-    <row r="560" ht="13.5" customHeight="1">
+    <row r="560" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="5"/>
       <c r="E560" s="5"/>
     </row>
-    <row r="561" ht="13.5" customHeight="1">
+    <row r="561" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="5"/>
       <c r="E561" s="5"/>
     </row>
-    <row r="562" ht="13.5" customHeight="1">
+    <row r="562" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="5"/>
       <c r="E562" s="5"/>
     </row>
-    <row r="563" ht="13.5" customHeight="1">
+    <row r="563" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B563" s="5"/>
       <c r="E563" s="5"/>
     </row>
-    <row r="564" ht="13.5" customHeight="1">
+    <row r="564" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B564" s="5"/>
       <c r="E564" s="5"/>
     </row>
-    <row r="565" ht="13.5" customHeight="1">
+    <row r="565" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="5"/>
       <c r="E565" s="5"/>
     </row>
-    <row r="566" ht="13.5" customHeight="1">
+    <row r="566" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="5"/>
       <c r="E566" s="5"/>
     </row>
-    <row r="567" ht="13.5" customHeight="1">
+    <row r="567" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="5"/>
       <c r="E567" s="5"/>
     </row>
-    <row r="568" ht="13.5" customHeight="1">
+    <row r="568" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="5"/>
       <c r="E568" s="5"/>
     </row>
-    <row r="569" ht="13.5" customHeight="1">
+    <row r="569" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="5"/>
       <c r="E569" s="5"/>
     </row>
-    <row r="570" ht="13.5" customHeight="1">
+    <row r="570" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="5"/>
       <c r="E570" s="5"/>
     </row>
-    <row r="571" ht="13.5" customHeight="1">
+    <row r="571" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="5"/>
       <c r="E571" s="5"/>
     </row>
-    <row r="572" ht="13.5" customHeight="1">
+    <row r="572" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="5"/>
       <c r="E572" s="5"/>
     </row>
-    <row r="573" ht="13.5" customHeight="1">
+    <row r="573" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="5"/>
       <c r="E573" s="5"/>
     </row>
-    <row r="574" ht="13.5" customHeight="1">
+    <row r="574" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="5"/>
       <c r="E574" s="5"/>
     </row>
-    <row r="575" ht="13.5" customHeight="1">
+    <row r="575" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="5"/>
       <c r="E575" s="5"/>
     </row>
-    <row r="576" ht="13.5" customHeight="1">
+    <row r="576" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B576" s="5"/>
       <c r="E576" s="5"/>
     </row>
-    <row r="577" ht="13.5" customHeight="1">
+    <row r="577" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="5"/>
       <c r="E577" s="5"/>
     </row>
-    <row r="578" ht="13.5" customHeight="1">
+    <row r="578" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="5"/>
       <c r="E578" s="5"/>
     </row>
-    <row r="579" ht="13.5" customHeight="1">
+    <row r="579" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="5"/>
       <c r="E579" s="5"/>
     </row>
-    <row r="580" ht="13.5" customHeight="1">
+    <row r="580" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="5"/>
       <c r="E580" s="5"/>
     </row>
-    <row r="581" ht="13.5" customHeight="1">
+    <row r="581" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B581" s="5"/>
       <c r="E581" s="5"/>
     </row>
-    <row r="582" ht="13.5" customHeight="1">
+    <row r="582" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B582" s="5"/>
       <c r="E582" s="5"/>
     </row>
-    <row r="583" ht="13.5" customHeight="1">
+    <row r="583" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="5"/>
       <c r="E583" s="5"/>
     </row>
-    <row r="584" ht="13.5" customHeight="1">
+    <row r="584" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="5"/>
       <c r="E584" s="5"/>
     </row>
-    <row r="585" ht="13.5" customHeight="1">
+    <row r="585" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="5"/>
       <c r="E585" s="5"/>
     </row>
-    <row r="586" ht="13.5" customHeight="1">
+    <row r="586" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="5"/>
       <c r="E586" s="5"/>
     </row>
-    <row r="587" ht="13.5" customHeight="1">
+    <row r="587" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="5"/>
       <c r="E587" s="5"/>
     </row>
-    <row r="588" ht="13.5" customHeight="1">
+    <row r="588" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="5"/>
       <c r="E588" s="5"/>
     </row>
-    <row r="589" ht="13.5" customHeight="1">
+    <row r="589" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="5"/>
       <c r="E589" s="5"/>
     </row>
-    <row r="590" ht="13.5" customHeight="1">
+    <row r="590" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="5"/>
       <c r="E590" s="5"/>
     </row>
-    <row r="591" ht="13.5" customHeight="1">
+    <row r="591" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="5"/>
       <c r="E591" s="5"/>
     </row>
-    <row r="592" ht="13.5" customHeight="1">
+    <row r="592" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="5"/>
       <c r="E592" s="5"/>
     </row>
-    <row r="593" ht="13.5" customHeight="1">
+    <row r="593" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="5"/>
       <c r="E593" s="5"/>
     </row>
-    <row r="594" ht="13.5" customHeight="1">
+    <row r="594" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="5"/>
       <c r="E594" s="5"/>
     </row>
-    <row r="595" ht="13.5" customHeight="1">
+    <row r="595" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="5"/>
       <c r="E595" s="5"/>
     </row>
-    <row r="596" ht="13.5" customHeight="1">
+    <row r="596" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="5"/>
       <c r="E596" s="5"/>
     </row>
-    <row r="597" ht="13.5" customHeight="1">
+    <row r="597" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="5"/>
       <c r="E597" s="5"/>
     </row>
-    <row r="598" ht="13.5" customHeight="1">
+    <row r="598" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="5"/>
       <c r="E598" s="5"/>
     </row>
-    <row r="599" ht="13.5" customHeight="1">
+    <row r="599" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="5"/>
       <c r="E599" s="5"/>
     </row>
-    <row r="600" ht="13.5" customHeight="1">
+    <row r="600" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="5"/>
       <c r="E600" s="5"/>
     </row>
-    <row r="601" ht="13.5" customHeight="1">
+    <row r="601" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="5"/>
       <c r="E601" s="5"/>
     </row>
-    <row r="602" ht="13.5" customHeight="1">
+    <row r="602" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="5"/>
       <c r="E602" s="5"/>
     </row>
-    <row r="603" ht="13.5" customHeight="1">
+    <row r="603" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="5"/>
       <c r="E603" s="5"/>
     </row>
-    <row r="604" ht="13.5" customHeight="1">
+    <row r="604" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="5"/>
       <c r="E604" s="5"/>
     </row>
-    <row r="605" ht="13.5" customHeight="1">
+    <row r="605" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="5"/>
       <c r="E605" s="5"/>
     </row>
-    <row r="606" ht="13.5" customHeight="1">
+    <row r="606" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="5"/>
       <c r="E606" s="5"/>
     </row>
-    <row r="607" ht="13.5" customHeight="1">
+    <row r="607" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="5"/>
       <c r="E607" s="5"/>
     </row>
-    <row r="608" ht="13.5" customHeight="1">
+    <row r="608" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="5"/>
       <c r="E608" s="5"/>
     </row>
-    <row r="609" ht="13.5" customHeight="1">
+    <row r="609" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="5"/>
       <c r="E609" s="5"/>
     </row>
-    <row r="610" ht="13.5" customHeight="1">
+    <row r="610" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="5"/>
       <c r="E610" s="5"/>
     </row>
-    <row r="611" ht="13.5" customHeight="1">
+    <row r="611" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="5"/>
       <c r="E611" s="5"/>
     </row>
-    <row r="612" ht="13.5" customHeight="1">
+    <row r="612" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B612" s="5"/>
       <c r="E612" s="5"/>
     </row>
-    <row r="613" ht="13.5" customHeight="1">
+    <row r="613" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="5"/>
       <c r="E613" s="5"/>
     </row>
-    <row r="614" ht="13.5" customHeight="1">
+    <row r="614" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="5"/>
       <c r="E614" s="5"/>
     </row>
-    <row r="615" ht="13.5" customHeight="1">
+    <row r="615" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B615" s="5"/>
       <c r="E615" s="5"/>
     </row>
-    <row r="616" ht="13.5" customHeight="1">
+    <row r="616" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="5"/>
       <c r="E616" s="5"/>
     </row>
-    <row r="617" ht="13.5" customHeight="1">
+    <row r="617" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="5"/>
       <c r="E617" s="5"/>
     </row>
-    <row r="618" ht="13.5" customHeight="1">
+    <row r="618" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="5"/>
       <c r="E618" s="5"/>
     </row>
-    <row r="619" ht="13.5" customHeight="1">
+    <row r="619" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="5"/>
       <c r="E619" s="5"/>
     </row>
-    <row r="620" ht="13.5" customHeight="1">
+    <row r="620" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="5"/>
       <c r="E620" s="5"/>
     </row>
-    <row r="621" ht="13.5" customHeight="1">
+    <row r="621" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="5"/>
       <c r="E621" s="5"/>
     </row>
-    <row r="622" ht="13.5" customHeight="1">
+    <row r="622" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="5"/>
       <c r="E622" s="5"/>
     </row>
-    <row r="623" ht="13.5" customHeight="1">
+    <row r="623" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="5"/>
       <c r="E623" s="5"/>
     </row>
-    <row r="624" ht="13.5" customHeight="1">
+    <row r="624" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="5"/>
       <c r="E624" s="5"/>
     </row>
-    <row r="625" ht="13.5" customHeight="1">
+    <row r="625" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="5"/>
       <c r="E625" s="5"/>
     </row>
-    <row r="626" ht="13.5" customHeight="1">
+    <row r="626" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="5"/>
       <c r="E626" s="5"/>
     </row>
-    <row r="627" ht="13.5" customHeight="1">
+    <row r="627" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B627" s="5"/>
       <c r="E627" s="5"/>
     </row>
-    <row r="628" ht="13.5" customHeight="1">
+    <row r="628" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="5"/>
       <c r="E628" s="5"/>
     </row>
-    <row r="629" ht="13.5" customHeight="1">
+    <row r="629" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="5"/>
       <c r="E629" s="5"/>
     </row>
-    <row r="630" ht="13.5" customHeight="1">
+    <row r="630" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="5"/>
       <c r="E630" s="5"/>
     </row>
-    <row r="631" ht="13.5" customHeight="1">
+    <row r="631" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B631" s="5"/>
       <c r="E631" s="5"/>
     </row>
-    <row r="632" ht="13.5" customHeight="1">
+    <row r="632" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="5"/>
       <c r="E632" s="5"/>
     </row>
-    <row r="633" ht="13.5" customHeight="1">
+    <row r="633" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="5"/>
       <c r="E633" s="5"/>
     </row>
-    <row r="634" ht="13.5" customHeight="1">
+    <row r="634" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B634" s="5"/>
       <c r="E634" s="5"/>
     </row>
-    <row r="635" ht="13.5" customHeight="1">
+    <row r="635" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B635" s="5"/>
       <c r="E635" s="5"/>
     </row>
-    <row r="636" ht="13.5" customHeight="1">
+    <row r="636" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="5"/>
       <c r="E636" s="5"/>
     </row>
-    <row r="637" ht="13.5" customHeight="1">
+    <row r="637" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B637" s="5"/>
       <c r="E637" s="5"/>
     </row>
-    <row r="638" ht="13.5" customHeight="1">
+    <row r="638" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="5"/>
       <c r="E638" s="5"/>
     </row>
-    <row r="639" ht="13.5" customHeight="1">
+    <row r="639" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="5"/>
       <c r="E639" s="5"/>
     </row>
-    <row r="640" ht="13.5" customHeight="1">
+    <row r="640" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="5"/>
       <c r="E640" s="5"/>
     </row>
-    <row r="641" ht="13.5" customHeight="1">
+    <row r="641" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="5"/>
       <c r="E641" s="5"/>
     </row>
-    <row r="642" ht="13.5" customHeight="1">
+    <row r="642" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="5"/>
       <c r="E642" s="5"/>
     </row>
-    <row r="643" ht="13.5" customHeight="1">
+    <row r="643" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="5"/>
       <c r="E643" s="5"/>
     </row>
-    <row r="644" ht="13.5" customHeight="1">
+    <row r="644" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="5"/>
       <c r="E644" s="5"/>
     </row>
-    <row r="645" ht="13.5" customHeight="1">
+    <row r="645" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="5"/>
       <c r="E645" s="5"/>
     </row>
-    <row r="646" ht="13.5" customHeight="1">
+    <row r="646" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="5"/>
       <c r="E646" s="5"/>
     </row>
-    <row r="647" ht="13.5" customHeight="1">
+    <row r="647" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B647" s="5"/>
       <c r="E647" s="5"/>
     </row>
-    <row r="648" ht="13.5" customHeight="1">
+    <row r="648" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="5"/>
       <c r="E648" s="5"/>
     </row>
-    <row r="649" ht="13.5" customHeight="1">
+    <row r="649" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B649" s="5"/>
       <c r="E649" s="5"/>
     </row>
-    <row r="650" ht="13.5" customHeight="1">
+    <row r="650" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="5"/>
       <c r="E650" s="5"/>
     </row>
-    <row r="651" ht="13.5" customHeight="1">
+    <row r="651" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="5"/>
       <c r="E651" s="5"/>
     </row>
-    <row r="652" ht="13.5" customHeight="1">
+    <row r="652" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="5"/>
       <c r="E652" s="5"/>
     </row>
-    <row r="653" ht="13.5" customHeight="1">
+    <row r="653" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="5"/>
       <c r="E653" s="5"/>
     </row>
-    <row r="654" ht="13.5" customHeight="1">
+    <row r="654" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="5"/>
       <c r="E654" s="5"/>
     </row>
-    <row r="655" ht="13.5" customHeight="1">
+    <row r="655" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="5"/>
       <c r="E655" s="5"/>
     </row>
-    <row r="656" ht="13.5" customHeight="1">
+    <row r="656" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B656" s="5"/>
       <c r="E656" s="5"/>
     </row>
-    <row r="657" ht="13.5" customHeight="1">
+    <row r="657" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="5"/>
       <c r="E657" s="5"/>
     </row>
-    <row r="658" ht="13.5" customHeight="1">
+    <row r="658" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="5"/>
       <c r="E658" s="5"/>
     </row>
-    <row r="659" ht="13.5" customHeight="1">
+    <row r="659" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="5"/>
       <c r="E659" s="5"/>
     </row>
-    <row r="660" ht="13.5" customHeight="1">
+    <row r="660" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="5"/>
       <c r="E660" s="5"/>
     </row>
-    <row r="661" ht="13.5" customHeight="1">
+    <row r="661" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="5"/>
       <c r="E661" s="5"/>
     </row>
-    <row r="662" ht="13.5" customHeight="1">
+    <row r="662" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="5"/>
       <c r="E662" s="5"/>
     </row>
-    <row r="663" ht="13.5" customHeight="1">
+    <row r="663" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B663" s="5"/>
       <c r="E663" s="5"/>
     </row>
-    <row r="664" ht="13.5" customHeight="1">
+    <row r="664" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B664" s="5"/>
       <c r="E664" s="5"/>
     </row>
-    <row r="665" ht="13.5" customHeight="1">
+    <row r="665" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B665" s="5"/>
       <c r="E665" s="5"/>
     </row>
-    <row r="666" ht="13.5" customHeight="1">
+    <row r="666" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B666" s="5"/>
       <c r="E666" s="5"/>
     </row>
-    <row r="667" ht="13.5" customHeight="1">
+    <row r="667" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B667" s="5"/>
       <c r="E667" s="5"/>
     </row>
-    <row r="668" ht="13.5" customHeight="1">
+    <row r="668" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B668" s="5"/>
       <c r="E668" s="5"/>
     </row>
-    <row r="669" ht="13.5" customHeight="1">
+    <row r="669" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B669" s="5"/>
       <c r="E669" s="5"/>
     </row>
-    <row r="670" ht="13.5" customHeight="1">
+    <row r="670" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B670" s="5"/>
       <c r="E670" s="5"/>
     </row>
-    <row r="671" ht="13.5" customHeight="1">
+    <row r="671" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B671" s="5"/>
       <c r="E671" s="5"/>
     </row>
-    <row r="672" ht="13.5" customHeight="1">
+    <row r="672" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B672" s="5"/>
       <c r="E672" s="5"/>
     </row>
-    <row r="673" ht="13.5" customHeight="1">
+    <row r="673" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B673" s="5"/>
       <c r="E673" s="5"/>
     </row>
-    <row r="674" ht="13.5" customHeight="1">
+    <row r="674" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B674" s="5"/>
       <c r="E674" s="5"/>
     </row>
-    <row r="675" ht="13.5" customHeight="1">
+    <row r="675" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B675" s="5"/>
       <c r="E675" s="5"/>
     </row>
-    <row r="676" ht="13.5" customHeight="1">
+    <row r="676" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B676" s="5"/>
       <c r="E676" s="5"/>
     </row>
-    <row r="677" ht="13.5" customHeight="1">
+    <row r="677" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B677" s="5"/>
       <c r="E677" s="5"/>
     </row>
-    <row r="678" ht="13.5" customHeight="1">
+    <row r="678" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B678" s="5"/>
       <c r="E678" s="5"/>
     </row>
-    <row r="679" ht="13.5" customHeight="1">
+    <row r="679" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B679" s="5"/>
       <c r="E679" s="5"/>
     </row>
-    <row r="680" ht="13.5" customHeight="1">
+    <row r="680" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B680" s="5"/>
       <c r="E680" s="5"/>
     </row>
-    <row r="681" ht="13.5" customHeight="1">
+    <row r="681" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B681" s="5"/>
       <c r="E681" s="5"/>
     </row>
-    <row r="682" ht="13.5" customHeight="1">
+    <row r="682" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B682" s="5"/>
       <c r="E682" s="5"/>
     </row>
-    <row r="683" ht="13.5" customHeight="1">
+    <row r="683" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B683" s="5"/>
       <c r="E683" s="5"/>
     </row>
-    <row r="684" ht="13.5" customHeight="1">
+    <row r="684" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B684" s="5"/>
       <c r="E684" s="5"/>
     </row>
-    <row r="685" ht="13.5" customHeight="1">
+    <row r="685" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B685" s="5"/>
       <c r="E685" s="5"/>
     </row>
-    <row r="686" ht="13.5" customHeight="1">
+    <row r="686" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B686" s="5"/>
       <c r="E686" s="5"/>
     </row>
-    <row r="687" ht="13.5" customHeight="1">
+    <row r="687" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B687" s="5"/>
       <c r="E687" s="5"/>
     </row>
-    <row r="688" ht="13.5" customHeight="1">
+    <row r="688" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B688" s="5"/>
       <c r="E688" s="5"/>
     </row>
-    <row r="689" ht="13.5" customHeight="1">
+    <row r="689" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B689" s="5"/>
       <c r="E689" s="5"/>
     </row>
-    <row r="690" ht="13.5" customHeight="1">
+    <row r="690" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B690" s="5"/>
       <c r="E690" s="5"/>
     </row>
-    <row r="691" ht="13.5" customHeight="1">
+    <row r="691" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B691" s="5"/>
       <c r="E691" s="5"/>
     </row>
-    <row r="692" ht="13.5" customHeight="1">
+    <row r="692" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B692" s="5"/>
       <c r="E692" s="5"/>
     </row>
-    <row r="693" ht="13.5" customHeight="1">
+    <row r="693" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B693" s="5"/>
       <c r="E693" s="5"/>
     </row>
-    <row r="694" ht="13.5" customHeight="1">
+    <row r="694" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B694" s="5"/>
       <c r="E694" s="5"/>
     </row>
-    <row r="695" ht="13.5" customHeight="1">
+    <row r="695" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B695" s="5"/>
       <c r="E695" s="5"/>
     </row>
-    <row r="696" ht="13.5" customHeight="1">
+    <row r="696" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B696" s="5"/>
       <c r="E696" s="5"/>
     </row>
-    <row r="697" ht="13.5" customHeight="1">
+    <row r="697" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B697" s="5"/>
       <c r="E697" s="5"/>
     </row>
-    <row r="698" ht="13.5" customHeight="1">
+    <row r="698" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B698" s="5"/>
       <c r="E698" s="5"/>
     </row>
-    <row r="699" ht="13.5" customHeight="1">
+    <row r="699" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B699" s="5"/>
       <c r="E699" s="5"/>
     </row>
-    <row r="700" ht="13.5" customHeight="1">
+    <row r="700" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B700" s="5"/>
       <c r="E700" s="5"/>
     </row>
-    <row r="701" ht="13.5" customHeight="1">
+    <row r="701" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B701" s="5"/>
       <c r="E701" s="5"/>
     </row>
-    <row r="702" ht="13.5" customHeight="1">
+    <row r="702" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B702" s="5"/>
       <c r="E702" s="5"/>
     </row>
-    <row r="703" ht="13.5" customHeight="1">
+    <row r="703" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B703" s="5"/>
       <c r="E703" s="5"/>
     </row>
-    <row r="704" ht="13.5" customHeight="1">
+    <row r="704" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B704" s="5"/>
       <c r="E704" s="5"/>
     </row>
-    <row r="705" ht="13.5" customHeight="1">
+    <row r="705" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B705" s="5"/>
       <c r="E705" s="5"/>
     </row>
-    <row r="706" ht="13.5" customHeight="1">
+    <row r="706" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B706" s="5"/>
       <c r="E706" s="5"/>
     </row>
-    <row r="707" ht="13.5" customHeight="1">
+    <row r="707" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B707" s="5"/>
       <c r="E707" s="5"/>
     </row>
-    <row r="708" ht="13.5" customHeight="1">
+    <row r="708" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B708" s="5"/>
       <c r="E708" s="5"/>
     </row>
-    <row r="709" ht="13.5" customHeight="1">
+    <row r="709" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B709" s="5"/>
       <c r="E709" s="5"/>
     </row>
-    <row r="710" ht="13.5" customHeight="1">
+    <row r="710" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B710" s="5"/>
       <c r="E710" s="5"/>
     </row>
-    <row r="711" ht="13.5" customHeight="1">
+    <row r="711" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B711" s="5"/>
       <c r="E711" s="5"/>
     </row>
-    <row r="712" ht="13.5" customHeight="1">
+    <row r="712" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B712" s="5"/>
       <c r="E712" s="5"/>
     </row>
-    <row r="713" ht="13.5" customHeight="1">
+    <row r="713" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B713" s="5"/>
       <c r="E713" s="5"/>
     </row>
-    <row r="714" ht="13.5" customHeight="1">
+    <row r="714" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B714" s="5"/>
       <c r="E714" s="5"/>
     </row>
-    <row r="715" ht="13.5" customHeight="1">
+    <row r="715" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B715" s="5"/>
       <c r="E715" s="5"/>
     </row>
-    <row r="716" ht="13.5" customHeight="1">
+    <row r="716" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B716" s="5"/>
       <c r="E716" s="5"/>
     </row>
-    <row r="717" ht="13.5" customHeight="1">
+    <row r="717" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B717" s="5"/>
       <c r="E717" s="5"/>
     </row>
-    <row r="718" ht="13.5" customHeight="1">
+    <row r="718" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B718" s="5"/>
       <c r="E718" s="5"/>
     </row>
-    <row r="719" ht="13.5" customHeight="1">
+    <row r="719" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B719" s="5"/>
       <c r="E719" s="5"/>
     </row>
-    <row r="720" ht="13.5" customHeight="1">
+    <row r="720" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B720" s="5"/>
       <c r="E720" s="5"/>
     </row>
-    <row r="721" ht="13.5" customHeight="1">
+    <row r="721" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B721" s="5"/>
       <c r="E721" s="5"/>
     </row>
-    <row r="722" ht="13.5" customHeight="1">
+    <row r="722" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B722" s="5"/>
       <c r="E722" s="5"/>
     </row>
-    <row r="723" ht="13.5" customHeight="1">
+    <row r="723" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B723" s="5"/>
       <c r="E723" s="5"/>
     </row>
-    <row r="724" ht="13.5" customHeight="1">
+    <row r="724" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B724" s="5"/>
       <c r="E724" s="5"/>
     </row>
-    <row r="725" ht="13.5" customHeight="1">
+    <row r="725" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B725" s="5"/>
       <c r="E725" s="5"/>
     </row>
-    <row r="726" ht="13.5" customHeight="1">
+    <row r="726" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B726" s="5"/>
       <c r="E726" s="5"/>
     </row>
-    <row r="727" ht="13.5" customHeight="1">
+    <row r="727" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B727" s="5"/>
       <c r="E727" s="5"/>
     </row>
-    <row r="728" ht="13.5" customHeight="1">
+    <row r="728" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B728" s="5"/>
       <c r="E728" s="5"/>
     </row>
-    <row r="729" ht="13.5" customHeight="1">
+    <row r="729" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B729" s="5"/>
       <c r="E729" s="5"/>
     </row>
-    <row r="730" ht="13.5" customHeight="1">
+    <row r="730" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B730" s="5"/>
       <c r="E730" s="5"/>
     </row>
-    <row r="731" ht="13.5" customHeight="1">
+    <row r="731" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B731" s="5"/>
       <c r="E731" s="5"/>
     </row>
-    <row r="732" ht="13.5" customHeight="1">
+    <row r="732" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B732" s="5"/>
       <c r="E732" s="5"/>
     </row>
-    <row r="733" ht="13.5" customHeight="1">
+    <row r="733" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B733" s="5"/>
       <c r="E733" s="5"/>
     </row>
-    <row r="734" ht="13.5" customHeight="1">
+    <row r="734" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B734" s="5"/>
       <c r="E734" s="5"/>
     </row>
-    <row r="735" ht="13.5" customHeight="1">
+    <row r="735" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B735" s="5"/>
       <c r="E735" s="5"/>
     </row>
-    <row r="736" ht="13.5" customHeight="1">
+    <row r="736" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B736" s="5"/>
       <c r="E736" s="5"/>
     </row>
-    <row r="737" ht="13.5" customHeight="1">
+    <row r="737" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B737" s="5"/>
       <c r="E737" s="5"/>
     </row>
-    <row r="738" ht="13.5" customHeight="1">
+    <row r="738" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B738" s="5"/>
       <c r="E738" s="5"/>
     </row>
-    <row r="739" ht="13.5" customHeight="1">
+    <row r="739" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B739" s="5"/>
       <c r="E739" s="5"/>
     </row>
-    <row r="740" ht="13.5" customHeight="1">
+    <row r="740" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B740" s="5"/>
       <c r="E740" s="5"/>
     </row>
-    <row r="741" ht="13.5" customHeight="1">
+    <row r="741" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B741" s="5"/>
       <c r="E741" s="5"/>
     </row>
-    <row r="742" ht="13.5" customHeight="1">
+    <row r="742" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B742" s="5"/>
       <c r="E742" s="5"/>
     </row>
-    <row r="743" ht="13.5" customHeight="1">
+    <row r="743" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B743" s="5"/>
       <c r="E743" s="5"/>
     </row>
-    <row r="744" ht="13.5" customHeight="1">
+    <row r="744" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B744" s="5"/>
       <c r="E744" s="5"/>
     </row>
-    <row r="745" ht="13.5" customHeight="1">
+    <row r="745" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B745" s="5"/>
       <c r="E745" s="5"/>
     </row>
-    <row r="746" ht="13.5" customHeight="1">
+    <row r="746" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B746" s="5"/>
       <c r="E746" s="5"/>
     </row>
-    <row r="747" ht="13.5" customHeight="1">
+    <row r="747" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B747" s="5"/>
       <c r="E747" s="5"/>
     </row>
-    <row r="748" ht="13.5" customHeight="1">
+    <row r="748" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B748" s="5"/>
       <c r="E748" s="5"/>
     </row>
-    <row r="749" ht="13.5" customHeight="1">
+    <row r="749" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B749" s="5"/>
       <c r="E749" s="5"/>
     </row>
-    <row r="750" ht="13.5" customHeight="1">
+    <row r="750" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B750" s="5"/>
       <c r="E750" s="5"/>
     </row>
-    <row r="751" ht="13.5" customHeight="1">
+    <row r="751" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B751" s="5"/>
       <c r="E751" s="5"/>
     </row>
-    <row r="752" ht="13.5" customHeight="1">
+    <row r="752" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B752" s="5"/>
       <c r="E752" s="5"/>
     </row>
-    <row r="753" ht="13.5" customHeight="1">
+    <row r="753" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B753" s="5"/>
       <c r="E753" s="5"/>
     </row>
-    <row r="754" ht="13.5" customHeight="1">
+    <row r="754" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B754" s="5"/>
       <c r="E754" s="5"/>
     </row>
-    <row r="755" ht="13.5" customHeight="1">
+    <row r="755" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B755" s="5"/>
       <c r="E755" s="5"/>
     </row>
-    <row r="756" ht="13.5" customHeight="1">
+    <row r="756" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B756" s="5"/>
       <c r="E756" s="5"/>
     </row>
-    <row r="757" ht="13.5" customHeight="1">
+    <row r="757" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B757" s="5"/>
       <c r="E757" s="5"/>
     </row>
-    <row r="758" ht="13.5" customHeight="1">
+    <row r="758" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B758" s="5"/>
       <c r="E758" s="5"/>
     </row>
-    <row r="759" ht="13.5" customHeight="1">
+    <row r="759" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B759" s="5"/>
       <c r="E759" s="5"/>
     </row>
-    <row r="760" ht="13.5" customHeight="1">
+    <row r="760" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B760" s="5"/>
       <c r="E760" s="5"/>
     </row>
-    <row r="761" ht="13.5" customHeight="1">
+    <row r="761" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B761" s="5"/>
       <c r="E761" s="5"/>
     </row>
-    <row r="762" ht="13.5" customHeight="1">
+    <row r="762" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B762" s="5"/>
       <c r="E762" s="5"/>
     </row>
-    <row r="763" ht="13.5" customHeight="1">
+    <row r="763" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B763" s="5"/>
       <c r="E763" s="5"/>
     </row>
-    <row r="764" ht="13.5" customHeight="1">
+    <row r="764" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B764" s="5"/>
       <c r="E764" s="5"/>
     </row>
-    <row r="765" ht="13.5" customHeight="1">
+    <row r="765" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B765" s="5"/>
       <c r="E765" s="5"/>
     </row>
-    <row r="766" ht="13.5" customHeight="1">
+    <row r="766" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B766" s="5"/>
       <c r="E766" s="5"/>
     </row>
-    <row r="767" ht="13.5" customHeight="1">
+    <row r="767" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B767" s="5"/>
       <c r="E767" s="5"/>
     </row>
-    <row r="768" ht="13.5" customHeight="1">
+    <row r="768" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B768" s="5"/>
       <c r="E768" s="5"/>
     </row>
-    <row r="769" ht="13.5" customHeight="1">
+    <row r="769" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B769" s="5"/>
       <c r="E769" s="5"/>
     </row>
-    <row r="770" ht="13.5" customHeight="1">
+    <row r="770" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B770" s="5"/>
       <c r="E770" s="5"/>
     </row>
-    <row r="771" ht="13.5" customHeight="1">
+    <row r="771" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B771" s="5"/>
       <c r="E771" s="5"/>
     </row>
-    <row r="772" ht="13.5" customHeight="1">
+    <row r="772" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B772" s="5"/>
       <c r="E772" s="5"/>
     </row>
-    <row r="773" ht="13.5" customHeight="1">
+    <row r="773" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B773" s="5"/>
       <c r="E773" s="5"/>
     </row>
-    <row r="774" ht="13.5" customHeight="1">
+    <row r="774" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B774" s="5"/>
       <c r="E774" s="5"/>
     </row>
-    <row r="775" ht="13.5" customHeight="1">
+    <row r="775" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B775" s="5"/>
       <c r="E775" s="5"/>
     </row>
-    <row r="776" ht="13.5" customHeight="1">
+    <row r="776" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B776" s="5"/>
       <c r="E776" s="5"/>
     </row>
-    <row r="777" ht="13.5" customHeight="1">
+    <row r="777" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B777" s="5"/>
       <c r="E777" s="5"/>
     </row>
-    <row r="778" ht="13.5" customHeight="1">
+    <row r="778" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B778" s="5"/>
       <c r="E778" s="5"/>
     </row>
-    <row r="779" ht="13.5" customHeight="1">
+    <row r="779" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B779" s="5"/>
       <c r="E779" s="5"/>
     </row>
-    <row r="780" ht="13.5" customHeight="1">
+    <row r="780" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B780" s="5"/>
       <c r="E780" s="5"/>
     </row>
-    <row r="781" ht="13.5" customHeight="1">
+    <row r="781" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B781" s="5"/>
       <c r="E781" s="5"/>
     </row>
-    <row r="782" ht="13.5" customHeight="1">
+    <row r="782" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B782" s="5"/>
       <c r="E782" s="5"/>
     </row>
-    <row r="783" ht="13.5" customHeight="1">
+    <row r="783" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B783" s="5"/>
       <c r="E783" s="5"/>
     </row>
-    <row r="784" ht="13.5" customHeight="1">
+    <row r="784" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B784" s="5"/>
       <c r="E784" s="5"/>
     </row>
-    <row r="785" ht="13.5" customHeight="1">
+    <row r="785" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B785" s="5"/>
       <c r="E785" s="5"/>
     </row>
-    <row r="786" ht="13.5" customHeight="1">
+    <row r="786" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B786" s="5"/>
       <c r="E786" s="5"/>
     </row>
-    <row r="787" ht="13.5" customHeight="1">
+    <row r="787" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B787" s="5"/>
       <c r="E787" s="5"/>
     </row>
-    <row r="788" ht="13.5" customHeight="1">
+    <row r="788" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B788" s="5"/>
       <c r="E788" s="5"/>
     </row>
-    <row r="789" ht="13.5" customHeight="1">
+    <row r="789" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B789" s="5"/>
       <c r="E789" s="5"/>
     </row>
-    <row r="790" ht="13.5" customHeight="1">
+    <row r="790" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B790" s="5"/>
       <c r="E790" s="5"/>
     </row>
-    <row r="791" ht="13.5" customHeight="1">
+    <row r="791" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B791" s="5"/>
       <c r="E791" s="5"/>
     </row>
-    <row r="792" ht="13.5" customHeight="1">
+    <row r="792" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B792" s="5"/>
       <c r="E792" s="5"/>
     </row>
-    <row r="793" ht="13.5" customHeight="1">
+    <row r="793" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B793" s="5"/>
       <c r="E793" s="5"/>
     </row>
-    <row r="794" ht="13.5" customHeight="1">
+    <row r="794" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B794" s="5"/>
       <c r="E794" s="5"/>
     </row>
-    <row r="795" ht="13.5" customHeight="1">
+    <row r="795" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B795" s="5"/>
       <c r="E795" s="5"/>
     </row>
-    <row r="796" ht="13.5" customHeight="1">
+    <row r="796" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B796" s="5"/>
       <c r="E796" s="5"/>
     </row>
-    <row r="797" ht="13.5" customHeight="1">
+    <row r="797" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B797" s="5"/>
       <c r="E797" s="5"/>
     </row>
-    <row r="798" ht="13.5" customHeight="1">
+    <row r="798" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B798" s="5"/>
       <c r="E798" s="5"/>
     </row>
-    <row r="799" ht="13.5" customHeight="1">
+    <row r="799" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B799" s="5"/>
       <c r="E799" s="5"/>
     </row>
-    <row r="800" ht="13.5" customHeight="1">
+    <row r="800" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B800" s="5"/>
       <c r="E800" s="5"/>
     </row>
-    <row r="801" ht="13.5" customHeight="1">
+    <row r="801" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B801" s="5"/>
       <c r="E801" s="5"/>
     </row>
-    <row r="802" ht="13.5" customHeight="1">
+    <row r="802" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B802" s="5"/>
       <c r="E802" s="5"/>
     </row>
-    <row r="803" ht="13.5" customHeight="1">
+    <row r="803" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B803" s="5"/>
       <c r="E803" s="5"/>
     </row>
-    <row r="804" ht="13.5" customHeight="1">
+    <row r="804" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B804" s="5"/>
       <c r="E804" s="5"/>
     </row>
-    <row r="805" ht="13.5" customHeight="1">
+    <row r="805" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B805" s="5"/>
       <c r="E805" s="5"/>
     </row>
-    <row r="806" ht="13.5" customHeight="1">
+    <row r="806" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B806" s="5"/>
       <c r="E806" s="5"/>
     </row>
-    <row r="807" ht="13.5" customHeight="1">
+    <row r="807" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B807" s="5"/>
       <c r="E807" s="5"/>
     </row>
-    <row r="808" ht="13.5" customHeight="1">
+    <row r="808" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B808" s="5"/>
       <c r="E808" s="5"/>
     </row>
-    <row r="809" ht="13.5" customHeight="1">
+    <row r="809" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B809" s="5"/>
       <c r="E809" s="5"/>
     </row>
-    <row r="810" ht="13.5" customHeight="1">
+    <row r="810" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B810" s="5"/>
       <c r="E810" s="5"/>
     </row>
-    <row r="811" ht="13.5" customHeight="1">
+    <row r="811" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B811" s="5"/>
       <c r="E811" s="5"/>
     </row>
-    <row r="812" ht="13.5" customHeight="1">
+    <row r="812" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B812" s="5"/>
       <c r="E812" s="5"/>
     </row>
-    <row r="813" ht="13.5" customHeight="1">
+    <row r="813" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B813" s="5"/>
       <c r="E813" s="5"/>
     </row>
-    <row r="814" ht="13.5" customHeight="1">
+    <row r="814" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B814" s="5"/>
       <c r="E814" s="5"/>
     </row>
-    <row r="815" ht="13.5" customHeight="1">
+    <row r="815" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B815" s="5"/>
       <c r="E815" s="5"/>
     </row>
-    <row r="816" ht="13.5" customHeight="1">
+    <row r="816" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B816" s="5"/>
       <c r="E816" s="5"/>
     </row>
-    <row r="817" ht="13.5" customHeight="1">
+    <row r="817" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B817" s="5"/>
       <c r="E817" s="5"/>
     </row>
-    <row r="818" ht="13.5" customHeight="1">
+    <row r="818" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B818" s="5"/>
       <c r="E818" s="5"/>
     </row>
-    <row r="819" ht="13.5" customHeight="1">
+    <row r="819" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B819" s="5"/>
       <c r="E819" s="5"/>
     </row>
-    <row r="820" ht="13.5" customHeight="1">
+    <row r="820" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B820" s="5"/>
       <c r="E820" s="5"/>
     </row>
-    <row r="821" ht="13.5" customHeight="1">
+    <row r="821" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B821" s="5"/>
       <c r="E821" s="5"/>
     </row>
-    <row r="822" ht="13.5" customHeight="1">
+    <row r="822" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B822" s="5"/>
       <c r="E822" s="5"/>
     </row>
-    <row r="823" ht="13.5" customHeight="1">
+    <row r="823" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B823" s="5"/>
       <c r="E823" s="5"/>
     </row>
-    <row r="824" ht="13.5" customHeight="1">
+    <row r="824" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B824" s="5"/>
       <c r="E824" s="5"/>
     </row>
-    <row r="825" ht="13.5" customHeight="1">
+    <row r="825" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B825" s="5"/>
       <c r="E825" s="5"/>
     </row>
-    <row r="826" ht="13.5" customHeight="1">
+    <row r="826" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B826" s="5"/>
       <c r="E826" s="5"/>
     </row>
-    <row r="827" ht="13.5" customHeight="1">
+    <row r="827" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B827" s="5"/>
       <c r="E827" s="5"/>
     </row>
-    <row r="828" ht="13.5" customHeight="1">
+    <row r="828" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B828" s="5"/>
       <c r="E828" s="5"/>
     </row>
-    <row r="829" ht="13.5" customHeight="1">
+    <row r="829" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B829" s="5"/>
       <c r="E829" s="5"/>
     </row>
-    <row r="830" ht="13.5" customHeight="1">
+    <row r="830" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B830" s="5"/>
       <c r="E830" s="5"/>
     </row>
-    <row r="831" ht="13.5" customHeight="1">
+    <row r="831" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B831" s="5"/>
       <c r="E831" s="5"/>
     </row>
-    <row r="832" ht="13.5" customHeight="1">
+    <row r="832" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B832" s="5"/>
       <c r="E832" s="5"/>
     </row>
-    <row r="833" ht="13.5" customHeight="1">
+    <row r="833" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B833" s="5"/>
       <c r="E833" s="5"/>
     </row>
-    <row r="834" ht="13.5" customHeight="1">
+    <row r="834" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B834" s="5"/>
       <c r="E834" s="5"/>
     </row>
-    <row r="835" ht="13.5" customHeight="1">
+    <row r="835" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B835" s="5"/>
       <c r="E835" s="5"/>
     </row>
-    <row r="836" ht="13.5" customHeight="1">
+    <row r="836" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B836" s="5"/>
       <c r="E836" s="5"/>
     </row>
-    <row r="837" ht="13.5" customHeight="1">
+    <row r="837" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B837" s="5"/>
       <c r="E837" s="5"/>
     </row>
-    <row r="838" ht="13.5" customHeight="1">
+    <row r="838" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B838" s="5"/>
       <c r="E838" s="5"/>
     </row>
-    <row r="839" ht="13.5" customHeight="1">
+    <row r="839" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B839" s="5"/>
       <c r="E839" s="5"/>
     </row>
-    <row r="840" ht="13.5" customHeight="1">
+    <row r="840" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B840" s="5"/>
       <c r="E840" s="5"/>
     </row>
-    <row r="841" ht="13.5" customHeight="1">
+    <row r="841" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B841" s="5"/>
       <c r="E841" s="5"/>
     </row>
-    <row r="842" ht="13.5" customHeight="1">
+    <row r="842" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B842" s="5"/>
       <c r="E842" s="5"/>
     </row>
-    <row r="843" ht="13.5" customHeight="1">
+    <row r="843" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B843" s="5"/>
       <c r="E843" s="5"/>
     </row>
-    <row r="844" ht="13.5" customHeight="1">
+    <row r="844" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B844" s="5"/>
       <c r="E844" s="5"/>
     </row>
-    <row r="845" ht="13.5" customHeight="1">
+    <row r="845" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B845" s="5"/>
       <c r="E845" s="5"/>
     </row>
-    <row r="846" ht="13.5" customHeight="1">
+    <row r="846" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B846" s="5"/>
       <c r="E846" s="5"/>
     </row>
-    <row r="847" ht="13.5" customHeight="1">
+    <row r="847" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B847" s="5"/>
       <c r="E847" s="5"/>
     </row>
-    <row r="848" ht="13.5" customHeight="1">
+    <row r="848" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B848" s="5"/>
       <c r="E848" s="5"/>
     </row>
-    <row r="849" ht="13.5" customHeight="1">
+    <row r="849" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B849" s="5"/>
       <c r="E849" s="5"/>
     </row>
-    <row r="850" ht="13.5" customHeight="1">
+    <row r="850" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B850" s="5"/>
       <c r="E850" s="5"/>
     </row>
-    <row r="851" ht="13.5" customHeight="1">
+    <row r="851" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B851" s="5"/>
       <c r="E851" s="5"/>
     </row>
-    <row r="852" ht="13.5" customHeight="1">
+    <row r="852" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B852" s="5"/>
       <c r="E852" s="5"/>
     </row>
-    <row r="853" ht="13.5" customHeight="1">
+    <row r="853" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B853" s="5"/>
       <c r="E853" s="5"/>
     </row>
-    <row r="854" ht="13.5" customHeight="1">
+    <row r="854" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B854" s="5"/>
       <c r="E854" s="5"/>
     </row>
-    <row r="855" ht="13.5" customHeight="1">
+    <row r="855" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B855" s="5"/>
       <c r="E855" s="5"/>
     </row>
-    <row r="856" ht="13.5" customHeight="1">
+    <row r="856" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B856" s="5"/>
       <c r="E856" s="5"/>
     </row>
-    <row r="857" ht="13.5" customHeight="1">
+    <row r="857" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B857" s="5"/>
       <c r="E857" s="5"/>
     </row>
-    <row r="858" ht="13.5" customHeight="1">
+    <row r="858" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B858" s="5"/>
       <c r="E858" s="5"/>
     </row>
-    <row r="859" ht="13.5" customHeight="1">
+    <row r="859" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B859" s="5"/>
       <c r="E859" s="5"/>
     </row>
-    <row r="860" ht="13.5" customHeight="1">
+    <row r="860" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B860" s="5"/>
       <c r="E860" s="5"/>
     </row>
-    <row r="861" ht="13.5" customHeight="1">
+    <row r="861" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B861" s="5"/>
       <c r="E861" s="5"/>
     </row>
-    <row r="862" ht="13.5" customHeight="1">
+    <row r="862" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B862" s="5"/>
       <c r="E862" s="5"/>
     </row>
-    <row r="863" ht="13.5" customHeight="1">
+    <row r="863" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B863" s="5"/>
       <c r="E863" s="5"/>
     </row>
-    <row r="864" ht="13.5" customHeight="1">
+    <row r="864" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B864" s="5"/>
       <c r="E864" s="5"/>
     </row>
-    <row r="865" ht="13.5" customHeight="1">
+    <row r="865" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B865" s="5"/>
       <c r="E865" s="5"/>
     </row>
-    <row r="866" ht="13.5" customHeight="1">
+    <row r="866" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B866" s="5"/>
       <c r="E866" s="5"/>
     </row>
-    <row r="867" ht="13.5" customHeight="1">
+    <row r="867" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B867" s="5"/>
       <c r="E867" s="5"/>
     </row>
-    <row r="868" ht="13.5" customHeight="1">
+    <row r="868" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B868" s="5"/>
       <c r="E868" s="5"/>
     </row>
-    <row r="869" ht="13.5" customHeight="1">
+    <row r="869" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B869" s="5"/>
       <c r="E869" s="5"/>
     </row>
-    <row r="870" ht="13.5" customHeight="1">
+    <row r="870" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B870" s="5"/>
       <c r="E870" s="5"/>
     </row>
-    <row r="871" ht="13.5" customHeight="1">
+    <row r="871" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B871" s="5"/>
       <c r="E871" s="5"/>
     </row>
-    <row r="872" ht="13.5" customHeight="1">
+    <row r="872" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B872" s="5"/>
       <c r="E872" s="5"/>
     </row>
-    <row r="873" ht="13.5" customHeight="1">
+    <row r="873" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B873" s="5"/>
       <c r="E873" s="5"/>
     </row>
-    <row r="874" ht="13.5" customHeight="1">
+    <row r="874" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B874" s="5"/>
       <c r="E874" s="5"/>
     </row>
-    <row r="875" ht="13.5" customHeight="1">
+    <row r="875" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B875" s="5"/>
       <c r="E875" s="5"/>
     </row>
-    <row r="876" ht="13.5" customHeight="1">
+    <row r="876" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B876" s="5"/>
       <c r="E876" s="5"/>
     </row>
-    <row r="877" ht="13.5" customHeight="1">
+    <row r="877" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B877" s="5"/>
       <c r="E877" s="5"/>
     </row>
-    <row r="878" ht="13.5" customHeight="1">
+    <row r="878" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B878" s="5"/>
       <c r="E878" s="5"/>
     </row>
-    <row r="879" ht="13.5" customHeight="1">
+    <row r="879" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B879" s="5"/>
       <c r="E879" s="5"/>
     </row>
-    <row r="880" ht="13.5" customHeight="1">
+    <row r="880" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B880" s="5"/>
       <c r="E880" s="5"/>
     </row>
-    <row r="881" ht="13.5" customHeight="1">
+    <row r="881" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B881" s="5"/>
       <c r="E881" s="5"/>
     </row>
-    <row r="882" ht="13.5" customHeight="1">
+    <row r="882" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B882" s="5"/>
       <c r="E882" s="5"/>
     </row>
-    <row r="883" ht="13.5" customHeight="1">
+    <row r="883" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B883" s="5"/>
       <c r="E883" s="5"/>
     </row>
-    <row r="884" ht="13.5" customHeight="1">
+    <row r="884" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B884" s="5"/>
       <c r="E884" s="5"/>
     </row>
-    <row r="885" ht="13.5" customHeight="1">
+    <row r="885" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B885" s="5"/>
       <c r="E885" s="5"/>
     </row>
-    <row r="886" ht="13.5" customHeight="1">
+    <row r="886" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B886" s="5"/>
       <c r="E886" s="5"/>
     </row>
-    <row r="887" ht="13.5" customHeight="1">
+    <row r="887" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B887" s="5"/>
       <c r="E887" s="5"/>
     </row>
-    <row r="888" ht="13.5" customHeight="1">
+    <row r="888" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B888" s="5"/>
       <c r="E888" s="5"/>
     </row>
-    <row r="889" ht="13.5" customHeight="1">
+    <row r="889" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B889" s="5"/>
       <c r="E889" s="5"/>
     </row>
-    <row r="890" ht="13.5" customHeight="1">
+    <row r="890" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B890" s="5"/>
       <c r="E890" s="5"/>
     </row>
-    <row r="891" ht="13.5" customHeight="1">
+    <row r="891" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B891" s="5"/>
       <c r="E891" s="5"/>
     </row>
-    <row r="892" ht="13.5" customHeight="1">
+    <row r="892" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B892" s="5"/>
       <c r="E892" s="5"/>
     </row>
-    <row r="893" ht="13.5" customHeight="1">
+    <row r="893" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B893" s="5"/>
       <c r="E893" s="5"/>
     </row>
-    <row r="894" ht="13.5" customHeight="1">
+    <row r="894" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B894" s="5"/>
       <c r="E894" s="5"/>
     </row>
-    <row r="895" ht="13.5" customHeight="1">
+    <row r="895" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B895" s="5"/>
       <c r="E895" s="5"/>
     </row>
-    <row r="896" ht="13.5" customHeight="1">
+    <row r="896" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B896" s="5"/>
       <c r="E896" s="5"/>
     </row>
-    <row r="897" ht="13.5" customHeight="1">
+    <row r="897" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B897" s="5"/>
       <c r="E897" s="5"/>
     </row>
-    <row r="898" ht="13.5" customHeight="1">
+    <row r="898" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B898" s="5"/>
       <c r="E898" s="5"/>
     </row>
-    <row r="899" ht="13.5" customHeight="1">
+    <row r="899" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B899" s="5"/>
       <c r="E899" s="5"/>
     </row>
-    <row r="900" ht="13.5" customHeight="1">
+    <row r="900" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B900" s="5"/>
       <c r="E900" s="5"/>
     </row>
-    <row r="901" ht="13.5" customHeight="1">
+    <row r="901" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B901" s="5"/>
       <c r="E901" s="5"/>
     </row>
-    <row r="902" ht="13.5" customHeight="1">
+    <row r="902" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B902" s="5"/>
       <c r="E902" s="5"/>
     </row>
-    <row r="903" ht="13.5" customHeight="1">
+    <row r="903" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B903" s="5"/>
       <c r="E903" s="5"/>
     </row>
-    <row r="904" ht="13.5" customHeight="1">
+    <row r="904" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B904" s="5"/>
       <c r="E904" s="5"/>
     </row>
-    <row r="905" ht="13.5" customHeight="1">
+    <row r="905" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B905" s="5"/>
       <c r="E905" s="5"/>
     </row>
-    <row r="906" ht="13.5" customHeight="1">
+    <row r="906" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B906" s="5"/>
       <c r="E906" s="5"/>
     </row>
-    <row r="907" ht="13.5" customHeight="1">
+    <row r="907" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B907" s="5"/>
       <c r="E907" s="5"/>
     </row>
-    <row r="908" ht="13.5" customHeight="1">
+    <row r="908" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B908" s="5"/>
       <c r="E908" s="5"/>
     </row>
-    <row r="909" ht="13.5" customHeight="1">
+    <row r="909" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B909" s="5"/>
       <c r="E909" s="5"/>
     </row>
-    <row r="910" ht="13.5" customHeight="1">
+    <row r="910" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B910" s="5"/>
       <c r="E910" s="5"/>
     </row>
-    <row r="911" ht="13.5" customHeight="1">
+    <row r="911" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B911" s="5"/>
       <c r="E911" s="5"/>
     </row>
-    <row r="912" ht="13.5" customHeight="1">
+    <row r="912" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B912" s="5"/>
       <c r="E912" s="5"/>
     </row>
-    <row r="913" ht="13.5" customHeight="1">
+    <row r="913" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B913" s="5"/>
       <c r="E913" s="5"/>
     </row>
-    <row r="914" ht="13.5" customHeight="1">
+    <row r="914" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B914" s="5"/>
       <c r="E914" s="5"/>
     </row>
-    <row r="915" ht="13.5" customHeight="1">
+    <row r="915" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B915" s="5"/>
       <c r="E915" s="5"/>
     </row>
-    <row r="916" ht="13.5" customHeight="1">
+    <row r="916" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B916" s="5"/>
       <c r="E916" s="5"/>
     </row>
-    <row r="917" ht="13.5" customHeight="1">
+    <row r="917" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B917" s="5"/>
       <c r="E917" s="5"/>
     </row>
-    <row r="918" ht="13.5" customHeight="1">
+    <row r="918" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B918" s="5"/>
       <c r="E918" s="5"/>
     </row>
-    <row r="919" ht="13.5" customHeight="1">
+    <row r="919" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B919" s="5"/>
       <c r="E919" s="5"/>
     </row>
-    <row r="920" ht="13.5" customHeight="1">
+    <row r="920" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B920" s="5"/>
       <c r="E920" s="5"/>
     </row>
-    <row r="921" ht="13.5" customHeight="1">
+    <row r="921" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B921" s="5"/>
       <c r="E921" s="5"/>
     </row>
-    <row r="922" ht="13.5" customHeight="1">
+    <row r="922" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B922" s="5"/>
       <c r="E922" s="5"/>
     </row>
-    <row r="923" ht="13.5" customHeight="1">
+    <row r="923" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B923" s="5"/>
       <c r="E923" s="5"/>
     </row>
-    <row r="924" ht="13.5" customHeight="1">
+    <row r="924" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B924" s="5"/>
       <c r="E924" s="5"/>
     </row>
-    <row r="925" ht="13.5" customHeight="1">
+    <row r="925" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B925" s="5"/>
       <c r="E925" s="5"/>
     </row>
-    <row r="926" ht="13.5" customHeight="1">
+    <row r="926" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B926" s="5"/>
       <c r="E926" s="5"/>
     </row>
-    <row r="927" ht="13.5" customHeight="1">
+    <row r="927" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B927" s="5"/>
       <c r="E927" s="5"/>
     </row>
-    <row r="928" ht="13.5" customHeight="1">
+    <row r="928" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B928" s="5"/>
       <c r="E928" s="5"/>
     </row>
-    <row r="929" ht="13.5" customHeight="1">
+    <row r="929" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B929" s="5"/>
       <c r="E929" s="5"/>
     </row>
-    <row r="930" ht="13.5" customHeight="1">
+    <row r="930" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B930" s="5"/>
       <c r="E930" s="5"/>
     </row>
-    <row r="931" ht="13.5" customHeight="1">
+    <row r="931" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B931" s="5"/>
       <c r="E931" s="5"/>
     </row>
-    <row r="932" ht="13.5" customHeight="1">
+    <row r="932" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B932" s="5"/>
       <c r="E932" s="5"/>
     </row>
-    <row r="933" ht="13.5" customHeight="1">
+    <row r="933" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B933" s="5"/>
       <c r="E933" s="5"/>
     </row>
-    <row r="934" ht="13.5" customHeight="1">
+    <row r="934" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B934" s="5"/>
       <c r="E934" s="5"/>
     </row>
-    <row r="935" ht="13.5" customHeight="1">
+    <row r="935" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B935" s="5"/>
       <c r="E935" s="5"/>
     </row>
-    <row r="936" ht="13.5" customHeight="1">
+    <row r="936" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B936" s="5"/>
       <c r="E936" s="5"/>
     </row>
-    <row r="937" ht="13.5" customHeight="1">
+    <row r="937" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B937" s="5"/>
       <c r="E937" s="5"/>
     </row>
-    <row r="938" ht="13.5" customHeight="1">
+    <row r="938" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B938" s="5"/>
       <c r="E938" s="5"/>
     </row>
-    <row r="939" ht="13.5" customHeight="1">
+    <row r="939" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B939" s="5"/>
       <c r="E939" s="5"/>
     </row>
-    <row r="940" ht="13.5" customHeight="1">
+    <row r="940" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B940" s="5"/>
       <c r="E940" s="5"/>
     </row>
-    <row r="941" ht="13.5" customHeight="1">
+    <row r="941" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B941" s="5"/>
       <c r="E941" s="5"/>
     </row>
-    <row r="942" ht="13.5" customHeight="1">
+    <row r="942" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B942" s="5"/>
       <c r="E942" s="5"/>
     </row>
-    <row r="943" ht="13.5" customHeight="1">
+    <row r="943" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B943" s="5"/>
       <c r="E943" s="5"/>
     </row>
-    <row r="944" ht="13.5" customHeight="1">
+    <row r="944" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B944" s="5"/>
       <c r="E944" s="5"/>
     </row>
-    <row r="945" ht="13.5" customHeight="1">
+    <row r="945" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B945" s="5"/>
       <c r="E945" s="5"/>
     </row>
-    <row r="946" ht="13.5" customHeight="1">
+    <row r="946" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B946" s="5"/>
       <c r="E946" s="5"/>
     </row>
-    <row r="947" ht="13.5" customHeight="1">
+    <row r="947" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B947" s="5"/>
       <c r="E947" s="5"/>
     </row>
-    <row r="948" ht="13.5" customHeight="1">
+    <row r="948" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B948" s="5"/>
       <c r="E948" s="5"/>
     </row>
-    <row r="949" ht="13.5" customHeight="1">
+    <row r="949" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B949" s="5"/>
       <c r="E949" s="5"/>
     </row>
-    <row r="950" ht="13.5" customHeight="1">
+    <row r="950" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B950" s="5"/>
       <c r="E950" s="5"/>
     </row>
-    <row r="951" ht="13.5" customHeight="1">
+    <row r="951" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B951" s="5"/>
       <c r="E951" s="5"/>
     </row>
-    <row r="952" ht="13.5" customHeight="1">
+    <row r="952" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B952" s="5"/>
       <c r="E952" s="5"/>
     </row>
-    <row r="953" ht="13.5" customHeight="1">
+    <row r="953" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B953" s="5"/>
       <c r="E953" s="5"/>
     </row>
-    <row r="954" ht="13.5" customHeight="1">
+    <row r="954" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B954" s="5"/>
       <c r="E954" s="5"/>
     </row>
-    <row r="955" ht="13.5" customHeight="1">
+    <row r="955" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B955" s="5"/>
       <c r="E955" s="5"/>
     </row>
-    <row r="956" ht="13.5" customHeight="1">
+    <row r="956" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B956" s="5"/>
       <c r="E956" s="5"/>
     </row>
-    <row r="957" ht="13.5" customHeight="1">
+    <row r="957" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B957" s="5"/>
       <c r="E957" s="5"/>
     </row>
-    <row r="958" ht="13.5" customHeight="1">
+    <row r="958" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B958" s="5"/>
       <c r="E958" s="5"/>
     </row>
-    <row r="959" ht="13.5" customHeight="1">
+    <row r="959" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B959" s="5"/>
       <c r="E959" s="5"/>
     </row>
-    <row r="960" ht="13.5" customHeight="1">
+    <row r="960" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B960" s="5"/>
       <c r="E960" s="5"/>
     </row>
-    <row r="961" ht="13.5" customHeight="1">
+    <row r="961" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B961" s="5"/>
       <c r="E961" s="5"/>
     </row>
-    <row r="962" ht="13.5" customHeight="1">
+    <row r="962" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B962" s="5"/>
       <c r="E962" s="5"/>
     </row>
-    <row r="963" ht="13.5" customHeight="1">
+    <row r="963" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B963" s="5"/>
       <c r="E963" s="5"/>
     </row>
-    <row r="964" ht="13.5" customHeight="1">
+    <row r="964" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B964" s="5"/>
       <c r="E964" s="5"/>
     </row>
-    <row r="965" ht="13.5" customHeight="1">
+    <row r="965" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B965" s="5"/>
       <c r="E965" s="5"/>
     </row>
-    <row r="966" ht="13.5" customHeight="1">
+    <row r="966" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B966" s="5"/>
       <c r="E966" s="5"/>
     </row>
-    <row r="967" ht="13.5" customHeight="1">
+    <row r="967" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B967" s="5"/>
       <c r="E967" s="5"/>
     </row>
-    <row r="968" ht="13.5" customHeight="1">
+    <row r="968" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B968" s="5"/>
       <c r="E968" s="5"/>
     </row>
-    <row r="969" ht="13.5" customHeight="1">
+    <row r="969" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B969" s="5"/>
       <c r="E969" s="5"/>
     </row>
-    <row r="970" ht="13.5" customHeight="1">
+    <row r="970" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B970" s="5"/>
       <c r="E970" s="5"/>
     </row>
-    <row r="971" ht="13.5" customHeight="1">
+    <row r="971" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B971" s="5"/>
       <c r="E971" s="5"/>
     </row>
-    <row r="972" ht="13.5" customHeight="1">
+    <row r="972" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B972" s="5"/>
       <c r="E972" s="5"/>
     </row>
-    <row r="973" ht="13.5" customHeight="1">
+    <row r="973" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B973" s="5"/>
       <c r="E973" s="5"/>
     </row>
-    <row r="974" ht="13.5" customHeight="1">
+    <row r="974" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B974" s="5"/>
       <c r="E974" s="5"/>
     </row>
-    <row r="975" ht="13.5" customHeight="1">
+    <row r="975" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B975" s="5"/>
       <c r="E975" s="5"/>
     </row>
-    <row r="976" ht="13.5" customHeight="1">
+    <row r="976" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B976" s="5"/>
       <c r="E976" s="5"/>
     </row>
-    <row r="977" ht="13.5" customHeight="1">
+    <row r="977" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B977" s="5"/>
       <c r="E977" s="5"/>
     </row>
-    <row r="978" ht="13.5" customHeight="1">
+    <row r="978" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B978" s="5"/>
       <c r="E978" s="5"/>
     </row>
-    <row r="979" ht="13.5" customHeight="1">
+    <row r="979" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B979" s="5"/>
       <c r="E979" s="5"/>
     </row>
-    <row r="980" ht="13.5" customHeight="1">
+    <row r="980" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B980" s="5"/>
       <c r="E980" s="5"/>
     </row>
-    <row r="981" ht="13.5" customHeight="1">
+    <row r="981" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B981" s="5"/>
       <c r="E981" s="5"/>
     </row>
-    <row r="982" ht="13.5" customHeight="1">
+    <row r="982" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B982" s="5"/>
       <c r="E982" s="5"/>
     </row>
-    <row r="983" ht="13.5" customHeight="1">
+    <row r="983" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B983" s="5"/>
       <c r="E983" s="5"/>
     </row>
-    <row r="984" ht="13.5" customHeight="1">
+    <row r="984" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B984" s="5"/>
       <c r="E984" s="5"/>
     </row>
-    <row r="985" ht="13.5" customHeight="1">
+    <row r="985" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B985" s="5"/>
       <c r="E985" s="5"/>
     </row>
-    <row r="986" ht="13.5" customHeight="1">
+    <row r="986" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B986" s="5"/>
       <c r="E986" s="5"/>
     </row>
-    <row r="987" ht="13.5" customHeight="1">
+    <row r="987" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B987" s="5"/>
       <c r="E987" s="5"/>
     </row>
-    <row r="988" ht="13.5" customHeight="1">
+    <row r="988" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B988" s="5"/>
       <c r="E988" s="5"/>
     </row>
-    <row r="989" ht="13.5" customHeight="1">
+    <row r="989" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B989" s="5"/>
       <c r="E989" s="5"/>
     </row>
-    <row r="990" ht="13.5" customHeight="1">
+    <row r="990" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B990" s="5"/>
       <c r="E990" s="5"/>
     </row>
-    <row r="991" ht="13.5" customHeight="1">
+    <row r="991" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B991" s="5"/>
       <c r="E991" s="5"/>
     </row>
-    <row r="992" ht="13.5" customHeight="1">
+    <row r="992" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B992" s="5"/>
       <c r="E992" s="5"/>
     </row>
-    <row r="993" ht="13.5" customHeight="1">
+    <row r="993" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B993" s="5"/>
       <c r="E993" s="5"/>
     </row>
-    <row r="994" ht="13.5" customHeight="1">
+    <row r="994" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B994" s="5"/>
       <c r="E994" s="5"/>
     </row>
-    <row r="995" ht="13.5" customHeight="1">
+    <row r="995" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B995" s="5"/>
       <c r="E995" s="5"/>
     </row>
-    <row r="996" ht="13.5" customHeight="1">
+    <row r="996" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B996" s="5"/>
       <c r="E996" s="5"/>
     </row>
-    <row r="997" ht="13.5" customHeight="1">
+    <row r="997" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B997" s="5"/>
       <c r="E997" s="5"/>
     </row>
-    <row r="998" ht="13.5" customHeight="1">
+    <row r="998" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B998" s="5"/>
       <c r="E998" s="5"/>
     </row>
-    <row r="999" ht="13.5" customHeight="1">
+    <row r="999" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B999" s="5"/>
       <c r="E999" s="5"/>
     </row>
-    <row r="1000" ht="13.5" customHeight="1">
+    <row r="1000" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1000" s="5"/>
       <c r="E1000" s="5"/>
     </row>
-    <row r="1001" ht="13.5" customHeight="1">
+    <row r="1001" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1001" s="5"/>
       <c r="E1001" s="5"/>
     </row>
-    <row r="1002" ht="13.5" customHeight="1">
+    <row r="1002" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1002" s="5"/>
       <c r="E1002" s="5"/>
     </row>
-    <row r="1003" ht="13.5" customHeight="1">
+    <row r="1003" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1003" s="5"/>
       <c r="E1003" s="5"/>
     </row>
-    <row r="1004" ht="13.5" customHeight="1">
+    <row r="1004" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1004" s="5"/>
       <c r="E1004" s="5"/>
     </row>
-    <row r="1005" ht="13.5" customHeight="1">
+    <row r="1005" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1005" s="5"/>
       <c r="E1005" s="5"/>
     </row>
-    <row r="1006" ht="13.5" customHeight="1">
+    <row r="1006" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1006" s="5"/>
       <c r="E1006" s="5"/>
     </row>
-    <row r="1007" ht="13.5" customHeight="1">
+    <row r="1007" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1007" s="5"/>
       <c r="E1007" s="5"/>
     </row>
-    <row r="1008" ht="13.5" customHeight="1">
+    <row r="1008" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1008" s="5"/>
       <c r="E1008" s="5"/>
     </row>
-    <row r="1009" ht="13.5" customHeight="1">
+    <row r="1009" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1009" s="5"/>
       <c r="E1009" s="5"/>
     </row>
-    <row r="1010" ht="13.5" customHeight="1">
+    <row r="1010" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1010" s="5"/>
       <c r="E1010" s="5"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-sln\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA972C6-9DF1-4AAE-B7EA-62BEA680DC33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD1922E-BCB3-4B3B-A5AE-CA1B58E279FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="38">
   <si>
     <t>lang_code</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>016</t>
+  </si>
+  <si>
+    <t>000</t>
   </si>
 </sst>
 </file>
@@ -429,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="K167" sqref="K167"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="N177" sqref="N177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3754,48 +3757,191 @@
       </c>
     </row>
     <row r="178" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="5"/>
-      <c r="E178" s="5"/>
+      <c r="A178" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="179" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="5"/>
-      <c r="E179" s="5"/>
+      <c r="A179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="180" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="5"/>
-      <c r="E180" s="5"/>
+      <c r="A180" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="181" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="5"/>
-      <c r="E181" s="5"/>
+      <c r="A181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="182" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="5"/>
-      <c r="E182" s="5"/>
+      <c r="A182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="183" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="A183" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="184" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="5"/>
-      <c r="E184" s="5"/>
+      <c r="A184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="185" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="5"/>
-      <c r="E185" s="5"/>
+      <c r="A185" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="186" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="5"/>
-      <c r="E186" s="5"/>
+      <c r="A186" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="187" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="5"/>
-      <c r="E187" s="5"/>
+      <c r="A187" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="188" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="5"/>
-      <c r="E188" s="5"/>
+      <c r="A188" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="189" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="5"/>
